--- a/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
+++ b/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217ADDE6-66A3-4811-BEC0-9934099804BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482A003-65B5-49F2-973E-2BA8965877D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,9 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L238" sqref="L238"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN238" sqref="AN238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25093,7 +25093,7 @@
         <v>6.5796104190788712E-2</v>
       </c>
       <c r="M226" s="10">
-        <f>F226/D226</f>
+        <f t="shared" ref="M226:M237" si="35">F226/D226</f>
         <v>5.3580009610764055E-2</v>
       </c>
       <c r="N226" s="10"/>
@@ -25248,7 +25248,7 @@
         <v>6.5260538885437522E-2</v>
       </c>
       <c r="M227" s="10">
-        <f>F227/D227</f>
+        <f t="shared" si="35"/>
         <v>5.3541492036881813E-2</v>
       </c>
       <c r="N227" s="10"/>
@@ -25394,7 +25394,7 @@
         <v>74417.00000117725</v>
       </c>
       <c r="K228" s="10">
-        <f t="shared" ref="K228:K236" si="35">F228/D228</f>
+        <f t="shared" ref="K228:K236" si="36">F228/D228</f>
         <v>5.0606871014194608E-2</v>
       </c>
       <c r="L228" s="10">
@@ -25402,7 +25402,7 @@
         <v>6.7154227964030325E-2</v>
       </c>
       <c r="M228" s="10">
-        <f>F228/D228</f>
+        <f t="shared" si="35"/>
         <v>5.0606871014194608E-2</v>
       </c>
       <c r="N228" s="10"/>
@@ -25548,15 +25548,15 @@
         <v>81226.000001121283</v>
       </c>
       <c r="K229" s="10">
+        <f t="shared" si="36"/>
+        <v>5.0342219020172913E-2</v>
+      </c>
+      <c r="L229" s="10">
+        <f t="shared" ref="L229:L237" si="37">AVERAGE(K226:K232)</f>
+        <v>6.277854321455037E-2</v>
+      </c>
+      <c r="M229" s="10">
         <f t="shared" si="35"/>
-        <v>5.0342219020172913E-2</v>
-      </c>
-      <c r="L229" s="10">
-        <f t="shared" ref="L229:L237" si="36">AVERAGE(K226:K232)</f>
-        <v>6.277854321455037E-2</v>
-      </c>
-      <c r="M229" s="10">
-        <f>F229/D229</f>
         <v>5.0342219020172913E-2</v>
       </c>
       <c r="N229" s="10"/>
@@ -25702,15 +25702,15 @@
         <v>86083.000001611028</v>
       </c>
       <c r="K230" s="10">
+        <f t="shared" si="36"/>
+        <v>5.578512396694215E-2</v>
+      </c>
+      <c r="L230" s="10">
+        <f t="shared" si="37"/>
+        <v>6.3480636062449997E-2</v>
+      </c>
+      <c r="M230" s="10">
         <f t="shared" si="35"/>
-        <v>5.578512396694215E-2</v>
-      </c>
-      <c r="L230" s="10">
-        <f t="shared" si="36"/>
-        <v>6.3480636062449997E-2</v>
-      </c>
-      <c r="M230" s="10">
-        <f>F230/D230</f>
         <v>5.578512396694215E-2</v>
       </c>
       <c r="N230" s="10"/>
@@ -25856,15 +25856,15 @@
         <v>86976.000001851586</v>
       </c>
       <c r="K231" s="10">
+        <f t="shared" si="36"/>
+        <v>9.2508400869737106E-2</v>
+      </c>
+      <c r="L231" s="10">
+        <f t="shared" si="37"/>
+        <v>6.3724880423677313E-2</v>
+      </c>
+      <c r="M231" s="10">
         <f t="shared" si="35"/>
-        <v>9.2508400869737106E-2</v>
-      </c>
-      <c r="L231" s="10">
-        <f t="shared" si="36"/>
-        <v>6.3724880423677313E-2</v>
-      </c>
-      <c r="M231" s="10">
-        <f>F231/D231</f>
         <v>9.2508400869737106E-2</v>
       </c>
       <c r="N231" s="10"/>
@@ -26010,15 +26010,15 @@
         <v>90274.00000148447</v>
       </c>
       <c r="K232" s="10">
+        <f t="shared" si="36"/>
+        <v>8.3085685983159976E-2</v>
+      </c>
+      <c r="L232" s="10">
+        <f t="shared" si="37"/>
+        <v>6.4448095247253784E-2</v>
+      </c>
+      <c r="M232" s="10">
         <f t="shared" si="35"/>
-        <v>8.3085685983159976E-2</v>
-      </c>
-      <c r="L232" s="10">
-        <f t="shared" si="36"/>
-        <v>6.4448095247253784E-2</v>
-      </c>
-      <c r="M232" s="10">
-        <f>F232/D232</f>
         <v>8.3085685983159976E-2</v>
       </c>
       <c r="N232" s="10"/>
@@ -26165,15 +26165,15 @@
         <v>98760.000000998698</v>
       </c>
       <c r="K233" s="10">
+        <f t="shared" si="36"/>
+        <v>5.8494659546061416E-2</v>
+      </c>
+      <c r="L233" s="10">
+        <f t="shared" si="37"/>
+        <v>6.4608533318315245E-2</v>
+      </c>
+      <c r="M233" s="10">
         <f t="shared" si="35"/>
-        <v>5.8494659546061416E-2</v>
-      </c>
-      <c r="L233" s="10">
-        <f t="shared" si="36"/>
-        <v>6.4608533318315245E-2</v>
-      </c>
-      <c r="M233" s="10">
-        <f>F233/D233</f>
         <v>5.8494659546061416E-2</v>
       </c>
       <c r="N233" s="10"/>
@@ -26319,15 +26319,15 @@
         <v>113179.00000164565</v>
       </c>
       <c r="K234" s="10">
+        <f t="shared" si="36"/>
+        <v>5.5251202565473008E-2</v>
+      </c>
+      <c r="L234" s="10">
+        <f t="shared" si="37"/>
+        <v>6.2492340863035963E-2</v>
+      </c>
+      <c r="M234" s="10">
         <f t="shared" si="35"/>
-        <v>5.5251202565473008E-2</v>
-      </c>
-      <c r="L234" s="10">
-        <f t="shared" si="36"/>
-        <v>6.2492340863035963E-2</v>
-      </c>
-      <c r="M234" s="10">
-        <f>F234/D234</f>
         <v>5.5251202565473008E-2</v>
       </c>
       <c r="N234" s="10"/>
@@ -26473,15 +26473,15 @@
         <v>126814.00000001624</v>
       </c>
       <c r="K235" s="10">
+        <f t="shared" si="36"/>
+        <v>5.5669374779229952E-2</v>
+      </c>
+      <c r="L235" s="10">
+        <f t="shared" si="37"/>
+        <v>5.73569838940396E-2</v>
+      </c>
+      <c r="M235" s="10">
         <f t="shared" si="35"/>
-        <v>5.5669374779229952E-2</v>
-      </c>
-      <c r="L235" s="10">
-        <f t="shared" si="36"/>
-        <v>5.73569838940396E-2</v>
-      </c>
-      <c r="M235" s="10">
-        <f>F235/D235</f>
         <v>5.5669374779229952E-2</v>
       </c>
       <c r="O235" s="10">
@@ -26577,7 +26577,7 @@
         <v>1618</v>
       </c>
       <c r="AQ235" s="32">
-        <f t="shared" ref="AQ235:AQ236" si="37">AR235/AM235</f>
+        <f t="shared" ref="AQ235:AQ236" si="38">AR235/AM235</f>
         <v>0.12239583333333333</v>
       </c>
       <c r="AR235" s="17">
@@ -26626,15 +26626,15 @@
         <v>141612.00000180083</v>
       </c>
       <c r="K236" s="10">
+        <f t="shared" si="36"/>
+        <v>5.1465285517603092E-2</v>
+      </c>
+      <c r="L236" s="10">
+        <f t="shared" si="37"/>
+        <v>5.3068866879186195E-2</v>
+      </c>
+      <c r="M236" s="10">
         <f t="shared" si="35"/>
-        <v>5.1465285517603092E-2</v>
-      </c>
-      <c r="L236" s="10">
-        <f t="shared" si="36"/>
-        <v>5.3068866879186195E-2</v>
-      </c>
-      <c r="M236" s="10">
-        <f>F236/D236</f>
         <v>5.1465285517603092E-2</v>
       </c>
       <c r="O236" s="10">
@@ -26730,7 +26730,7 @@
         <v>1716</v>
       </c>
       <c r="AQ236" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12311557788944724</v>
       </c>
       <c r="AR236" s="17">
@@ -26783,11 +26783,11 @@
         <v>4.0971776779987173E-2</v>
       </c>
       <c r="L237" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>5.1983708345811161E-2</v>
       </c>
       <c r="M237" s="10">
-        <f>F237/D237</f>
+        <f t="shared" si="35"/>
         <v>4.0971776779987173E-2</v>
       </c>
       <c r="O237" s="10">
@@ -26982,6 +26982,10 @@
       <c r="AK238" s="17"/>
       <c r="AL238" s="17"/>
       <c r="AM238" s="17"/>
+      <c r="AN238" s="32">
+        <f>AVERAGE(AN184:AN237)</f>
+        <v>0.20333445979899992</v>
+      </c>
       <c r="AO238" s="10">
         <f>AVERAGE(AO184:AO237)</f>
         <v>0.66153632817616659</v>

--- a/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
+++ b/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482A003-65B5-49F2-973E-2BA8965877D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C96F6B9-B723-422A-88B7-23992FCF3DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,9 +725,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN238" sqref="AN238"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH238" sqref="AH238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26895,7 +26895,7 @@
         <v>9.4977168949771686E-3</v>
       </c>
       <c r="AT237" s="36">
-        <f t="shared" si="26"/>
+        <f>AVERAGE(S231:S237)</f>
         <v>7.729644256854086E-2</v>
       </c>
     </row>

--- a/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
+++ b/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6778688-B68D-41C2-9023-72F6C89B3585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957E582-068F-4DFB-A705-C01A9F56051F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,7 +277,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -356,6 +356,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -366,7 +368,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW264"/>
+  <dimension ref="A1:AX264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS229" sqref="AS229"/>
+      <pane ySplit="8" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AX238" sqref="AX238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,169 +779,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AT1" s="28"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38" t="s">
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AT2" s="28"/>
@@ -1030,170 +1031,170 @@
       <c r="AT3" s="23"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="40"/>
+      <c r="B4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="42"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41" t="s">
+      <c r="B5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="29"/>
@@ -1289,73 +1290,73 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38" t="s">
+      <c r="U7" s="40"/>
+      <c r="V7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AC7" s="26"/>
       <c r="AD7" s="19"/>
-      <c r="AE7" s="38" t="s">
+      <c r="AE7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38" t="s">
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40" t="s">
         <v>1</v>
       </c>
       <c r="AT7" s="28"/>
@@ -1712,15 +1713,15 @@
       <c r="AO11" s="10">
         <v>0.2</v>
       </c>
-      <c r="AP11" s="42">
+      <c r="AP11" s="39">
         <f t="shared" ref="AP11:AP20" si="2">AO11*E11</f>
         <v>1</v>
       </c>
-      <c r="AQ11" s="42">
+      <c r="AQ11" s="39">
         <f t="shared" ref="AQ11:AQ74" si="3">AP11-AP10</f>
         <v>1</v>
       </c>
-      <c r="AR11" s="42"/>
+      <c r="AR11" s="39"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1802,15 +1803,15 @@
       <c r="AO12" s="10">
         <v>0.14285714285699999</v>
       </c>
-      <c r="AP12" s="42">
+      <c r="AP12" s="39">
         <f t="shared" si="2"/>
         <v>0.99999999999899991</v>
       </c>
-      <c r="AQ12" s="42">
+      <c r="AQ12" s="39">
         <f t="shared" si="3"/>
         <v>-1.000088900582341E-12</v>
       </c>
-      <c r="AR12" s="42"/>
+      <c r="AR12" s="39"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1892,15 +1893,15 @@
       <c r="AO13" s="10">
         <v>0.125</v>
       </c>
-      <c r="AP13" s="42">
+      <c r="AP13" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AQ13" s="42">
+      <c r="AQ13" s="39">
         <f t="shared" si="3"/>
         <v>1.000088900582341E-12</v>
       </c>
-      <c r="AR13" s="42"/>
+      <c r="AR13" s="39"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1982,15 +1983,15 @@
       <c r="AO14" s="10">
         <v>0.181818181818</v>
       </c>
-      <c r="AP14" s="42">
+      <c r="AP14" s="39">
         <f t="shared" si="2"/>
         <v>1.999999999998</v>
       </c>
-      <c r="AQ14" s="42">
+      <c r="AQ14" s="39">
         <f t="shared" si="3"/>
         <v>0.99999999999800004</v>
       </c>
-      <c r="AR14" s="42"/>
+      <c r="AR14" s="39"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -2077,15 +2078,15 @@
       <c r="AO15" s="10">
         <v>0.19230769230700001</v>
       </c>
-      <c r="AP15" s="42">
+      <c r="AP15" s="39">
         <f t="shared" si="2"/>
         <v>4.9999999999820002</v>
       </c>
-      <c r="AQ15" s="42">
+      <c r="AQ15" s="39">
         <f t="shared" si="3"/>
         <v>2.9999999999840004</v>
       </c>
-      <c r="AR15" s="42"/>
+      <c r="AR15" s="39"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -2172,15 +2173,15 @@
       <c r="AO16" s="10">
         <v>0.186440677966</v>
       </c>
-      <c r="AP16" s="42">
+      <c r="AP16" s="39">
         <f t="shared" si="2"/>
         <v>10.999999999993999</v>
       </c>
-      <c r="AQ16" s="42">
+      <c r="AQ16" s="39">
         <f t="shared" si="3"/>
         <v>6.0000000000119993</v>
       </c>
-      <c r="AR16" s="42"/>
+      <c r="AR16" s="39"/>
       <c r="AU16" s="17">
         <f t="shared" ref="AU16:AU79" si="4">AS16-AS15</f>
         <v>0</v>
@@ -2271,15 +2272,15 @@
       <c r="AO17" s="10">
         <v>0.203125</v>
       </c>
-      <c r="AP17" s="42">
+      <c r="AP17" s="39">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AQ17" s="42">
+      <c r="AQ17" s="39">
         <f t="shared" si="3"/>
         <v>2.0000000000060005</v>
       </c>
-      <c r="AR17" s="42"/>
+      <c r="AR17" s="39"/>
       <c r="AU17" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2370,15 +2371,15 @@
       <c r="AO18" s="10">
         <v>0.25</v>
       </c>
-      <c r="AP18" s="42">
+      <c r="AP18" s="39">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AQ18" s="42">
+      <c r="AQ18" s="39">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="AR18" s="42"/>
+      <c r="AR18" s="39"/>
       <c r="AU18" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2469,15 +2470,15 @@
       <c r="AO19" s="10">
         <v>0.26744186046500001</v>
       </c>
-      <c r="AP19" s="42">
+      <c r="AP19" s="39">
         <f t="shared" si="2"/>
         <v>22.999999999990003</v>
       </c>
-      <c r="AQ19" s="42">
+      <c r="AQ19" s="39">
         <f t="shared" si="3"/>
         <v>4.9999999999900027</v>
       </c>
-      <c r="AR19" s="42"/>
+      <c r="AR19" s="39"/>
       <c r="AU19" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2568,15 +2569,15 @@
       <c r="AO20" s="10">
         <v>0.259615384615</v>
       </c>
-      <c r="AP20" s="42">
+      <c r="AP20" s="39">
         <f t="shared" si="2"/>
         <v>26.99999999996</v>
       </c>
-      <c r="AQ20" s="42">
+      <c r="AQ20" s="39">
         <f t="shared" si="3"/>
         <v>3.9999999999699973</v>
       </c>
-      <c r="AR20" s="42"/>
+      <c r="AR20" s="39"/>
       <c r="AU20" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2667,15 +2668,15 @@
       <c r="AO21" s="10">
         <v>0.26190476190400003</v>
       </c>
-      <c r="AP21" s="42">
+      <c r="AP21" s="39">
         <f>AO21*E21</f>
         <v>32.999999999904006</v>
       </c>
-      <c r="AQ21" s="42">
+      <c r="AQ21" s="39">
         <f t="shared" si="3"/>
         <v>5.9999999999440057</v>
       </c>
-      <c r="AR21" s="42"/>
+      <c r="AR21" s="39"/>
       <c r="AS21" s="17">
         <v>1</v>
       </c>
@@ -2769,15 +2770,15 @@
       <c r="AO22" s="10">
         <v>0.25657894736800002</v>
       </c>
-      <c r="AP22" s="42">
+      <c r="AP22" s="39">
         <f t="shared" ref="AP22:AP85" si="5">AO22*E22</f>
         <v>38.999999999936001</v>
       </c>
-      <c r="AQ22" s="42">
+      <c r="AQ22" s="39">
         <f t="shared" si="3"/>
         <v>6.0000000000319957</v>
       </c>
-      <c r="AR22" s="42"/>
+      <c r="AR22" s="39"/>
       <c r="AS22" s="17">
         <v>1</v>
       </c>
@@ -2871,15 +2872,15 @@
       <c r="AO23" s="10">
         <v>0.25423728813500002</v>
       </c>
-      <c r="AP23" s="42">
+      <c r="AP23" s="39">
         <f t="shared" si="5"/>
         <v>44.999999999895003</v>
       </c>
-      <c r="AQ23" s="42">
+      <c r="AQ23" s="39">
         <f t="shared" si="3"/>
         <v>5.9999999999590017</v>
       </c>
-      <c r="AR23" s="42"/>
+      <c r="AR23" s="39"/>
       <c r="AS23" s="17">
         <v>3</v>
       </c>
@@ -2973,15 +2974,15 @@
       <c r="AO24" s="10">
         <v>0.26008968609799998</v>
       </c>
-      <c r="AP24" s="42">
+      <c r="AP24" s="39">
         <f t="shared" si="5"/>
         <v>57.999999999853998</v>
       </c>
-      <c r="AQ24" s="42">
+      <c r="AQ24" s="39">
         <f t="shared" si="3"/>
         <v>12.999999999958995</v>
       </c>
-      <c r="AR24" s="42"/>
+      <c r="AR24" s="39"/>
       <c r="AS24" s="17">
         <v>8</v>
       </c>
@@ -3075,15 +3076,15 @@
       <c r="AO25" s="10">
         <v>0.242647058823</v>
       </c>
-      <c r="AP25" s="42">
+      <c r="AP25" s="39">
         <f t="shared" si="5"/>
         <v>65.999999999856001</v>
       </c>
-      <c r="AQ25" s="42">
+      <c r="AQ25" s="39">
         <f t="shared" si="3"/>
         <v>8.0000000000020037</v>
       </c>
-      <c r="AR25" s="42"/>
+      <c r="AR25" s="39"/>
       <c r="AS25" s="17">
         <v>8</v>
       </c>
@@ -3177,15 +3178,15 @@
       <c r="AO26" s="10">
         <v>0.237179487179</v>
       </c>
-      <c r="AP26" s="42">
+      <c r="AP26" s="39">
         <f t="shared" si="5"/>
         <v>73.999999999848001</v>
       </c>
-      <c r="AQ26" s="42">
+      <c r="AQ26" s="39">
         <f t="shared" si="3"/>
         <v>7.9999999999919993</v>
       </c>
-      <c r="AR26" s="42"/>
+      <c r="AR26" s="39"/>
       <c r="AS26" s="17">
         <v>10</v>
       </c>
@@ -3279,15 +3280,15 @@
       <c r="AO27" s="10">
         <v>0.24089635854300001</v>
       </c>
-      <c r="AP27" s="42">
+      <c r="AP27" s="39">
         <f t="shared" si="5"/>
         <v>85.999999999850999</v>
       </c>
-      <c r="AQ27" s="42">
+      <c r="AQ27" s="39">
         <f t="shared" si="3"/>
         <v>12.000000000002998</v>
       </c>
-      <c r="AR27" s="42"/>
+      <c r="AR27" s="39"/>
       <c r="AS27" s="17">
         <v>14</v>
       </c>
@@ -3381,15 +3382,15 @@
       <c r="AO28" s="10">
         <v>0.244155844155</v>
       </c>
-      <c r="AP28" s="42">
+      <c r="AP28" s="39">
         <f t="shared" si="5"/>
         <v>93.999999999674998</v>
       </c>
-      <c r="AQ28" s="42">
+      <c r="AQ28" s="39">
         <f t="shared" si="3"/>
         <v>7.9999999998239986</v>
       </c>
-      <c r="AR28" s="42"/>
+      <c r="AR28" s="39"/>
       <c r="AS28" s="17">
         <v>19</v>
       </c>
@@ -3483,15 +3484,15 @@
       <c r="AO29" s="10">
         <v>0.25916870415600002</v>
       </c>
-      <c r="AP29" s="42">
+      <c r="AP29" s="39">
         <f t="shared" si="5"/>
         <v>105.999999999804</v>
       </c>
-      <c r="AQ29" s="42">
+      <c r="AQ29" s="39">
         <f t="shared" si="3"/>
         <v>12.000000000129006</v>
       </c>
-      <c r="AR29" s="42"/>
+      <c r="AR29" s="39"/>
       <c r="AS29" s="17">
         <v>23</v>
       </c>
@@ -3585,15 +3586,15 @@
       <c r="AO30" s="10">
         <v>0.26931567328900002</v>
       </c>
-      <c r="AP30" s="42">
+      <c r="AP30" s="39">
         <f t="shared" si="5"/>
         <v>121.99999999991701</v>
       </c>
-      <c r="AQ30" s="42">
+      <c r="AQ30" s="39">
         <f t="shared" si="3"/>
         <v>16.000000000113005</v>
       </c>
-      <c r="AR30" s="42"/>
+      <c r="AR30" s="39"/>
       <c r="AS30" s="17">
         <v>29</v>
       </c>
@@ -3687,15 +3688,15 @@
       <c r="AO31" s="10">
         <v>0.29718875501999997</v>
       </c>
-      <c r="AP31" s="42">
+      <c r="AP31" s="39">
         <f t="shared" si="5"/>
         <v>147.99999999995998</v>
       </c>
-      <c r="AQ31" s="42">
+      <c r="AQ31" s="39">
         <f t="shared" si="3"/>
         <v>26.000000000042974</v>
       </c>
-      <c r="AR31" s="42"/>
+      <c r="AR31" s="39"/>
       <c r="AS31" s="17">
         <v>36</v>
       </c>
@@ -3789,15 +3790,15 @@
       <c r="AO32" s="10">
         <v>0.29422718808100001</v>
       </c>
-      <c r="AP32" s="42">
+      <c r="AP32" s="39">
         <f t="shared" si="5"/>
         <v>157.99999999949702</v>
       </c>
-      <c r="AQ32" s="42">
+      <c r="AQ32" s="39">
         <f t="shared" si="3"/>
         <v>9.9999999995370388</v>
       </c>
-      <c r="AR32" s="42"/>
+      <c r="AR32" s="39"/>
       <c r="AS32" s="17">
         <v>41</v>
       </c>
@@ -3891,15 +3892,15 @@
       <c r="AO33" s="10">
         <v>0.31833910034599999</v>
       </c>
-      <c r="AP33" s="42">
+      <c r="AP33" s="39">
         <f t="shared" si="5"/>
         <v>183.99999999998801</v>
       </c>
-      <c r="AQ33" s="42">
+      <c r="AQ33" s="39">
         <f t="shared" si="3"/>
         <v>26.000000000490985</v>
       </c>
-      <c r="AR33" s="42"/>
+      <c r="AR33" s="39"/>
       <c r="AS33" s="17">
         <v>48</v>
       </c>
@@ -3993,15 +3994,15 @@
       <c r="AO34" s="10">
         <v>0.31960461285000002</v>
       </c>
-      <c r="AP34" s="42">
+      <c r="AP34" s="39">
         <f t="shared" si="5"/>
         <v>193.99999999995001</v>
       </c>
-      <c r="AQ34" s="42">
+      <c r="AQ34" s="39">
         <f t="shared" si="3"/>
         <v>9.9999999999620002</v>
       </c>
-      <c r="AR34" s="42"/>
+      <c r="AR34" s="39"/>
       <c r="AS34" s="17">
         <v>56</v>
       </c>
@@ -4095,15 +4096,15 @@
       <c r="AO35" s="10">
         <v>0.319620253164</v>
       </c>
-      <c r="AP35" s="42">
+      <c r="AP35" s="39">
         <f t="shared" si="5"/>
         <v>201.999999999648</v>
       </c>
-      <c r="AQ35" s="42">
+      <c r="AQ35" s="39">
         <f t="shared" si="3"/>
         <v>7.9999999996979909</v>
       </c>
-      <c r="AR35" s="42"/>
+      <c r="AR35" s="39"/>
       <c r="AS35" s="17">
         <v>64</v>
       </c>
@@ -4197,15 +4198,15 @@
       <c r="AO36" s="10">
         <v>0.33134328358199999</v>
       </c>
-      <c r="AP36" s="42">
+      <c r="AP36" s="39">
         <f t="shared" si="5"/>
         <v>221.99999999994</v>
       </c>
-      <c r="AQ36" s="42">
+      <c r="AQ36" s="39">
         <f t="shared" si="3"/>
         <v>20.000000000292005</v>
       </c>
-      <c r="AR36" s="42"/>
+      <c r="AR36" s="39"/>
       <c r="AS36" s="17">
         <v>72</v>
       </c>
@@ -4299,15 +4300,15 @@
       <c r="AO37" s="10">
         <v>0.33567415730299999</v>
       </c>
-      <c r="AP37" s="42">
+      <c r="AP37" s="39">
         <f t="shared" si="5"/>
         <v>238.99999999973599</v>
       </c>
-      <c r="AQ37" s="42">
+      <c r="AQ37" s="39">
         <f t="shared" si="3"/>
         <v>16.999999999795989</v>
       </c>
-      <c r="AR37" s="42"/>
+      <c r="AR37" s="39"/>
       <c r="AS37" s="17">
         <v>80</v>
       </c>
@@ -4401,15 +4402,15 @@
       <c r="AO38" s="10">
         <v>0.36241610738199997</v>
       </c>
-      <c r="AP38" s="42">
+      <c r="AP38" s="39">
         <f t="shared" si="5"/>
         <v>269.99999999958999</v>
       </c>
-      <c r="AQ38" s="42">
+      <c r="AQ38" s="39">
         <f t="shared" si="3"/>
         <v>30.999999999853998</v>
       </c>
-      <c r="AR38" s="42"/>
+      <c r="AR38" s="39"/>
       <c r="AS38" s="17">
         <v>92</v>
       </c>
@@ -4503,15 +4504,15 @@
       <c r="AO39" s="10">
         <v>0.38156209987099998</v>
       </c>
-      <c r="AP39" s="42">
+      <c r="AP39" s="39">
         <f t="shared" si="5"/>
         <v>297.99999999925097</v>
       </c>
-      <c r="AQ39" s="42">
+      <c r="AQ39" s="39">
         <f t="shared" si="3"/>
         <v>27.999999999660986</v>
       </c>
-      <c r="AR39" s="42"/>
+      <c r="AR39" s="39"/>
       <c r="AS39" s="17">
         <v>101</v>
       </c>
@@ -4605,15 +4606,15 @@
       <c r="AO40" s="10">
         <v>0.38909541511700002</v>
       </c>
-      <c r="AP40" s="42">
+      <c r="AP40" s="39">
         <f t="shared" si="5"/>
         <v>313.999999999419</v>
       </c>
-      <c r="AQ40" s="42">
+      <c r="AQ40" s="39">
         <f t="shared" si="3"/>
         <v>16.000000000168029</v>
       </c>
-      <c r="AR40" s="42"/>
+      <c r="AR40" s="39"/>
       <c r="AS40" s="17">
         <v>107</v>
       </c>
@@ -4707,15 +4708,15 @@
       <c r="AO41" s="10">
         <v>0.39590854392199998</v>
       </c>
-      <c r="AP41" s="42">
+      <c r="AP41" s="39">
         <f t="shared" si="5"/>
         <v>328.99999999918197</v>
       </c>
-      <c r="AQ41" s="42">
+      <c r="AQ41" s="39">
         <f t="shared" si="3"/>
         <v>14.999999999762963</v>
       </c>
-      <c r="AR41" s="42"/>
+      <c r="AR41" s="39"/>
       <c r="AS41" s="17">
         <v>112</v>
       </c>
@@ -4809,15 +4810,15 @@
       <c r="AO42" s="10">
         <v>0.40377804014099999</v>
       </c>
-      <c r="AP42" s="42">
+      <c r="AP42" s="39">
         <f t="shared" si="5"/>
         <v>341.99999999942702</v>
       </c>
-      <c r="AQ42" s="42">
+      <c r="AQ42" s="39">
         <f t="shared" si="3"/>
         <v>13.000000000245052</v>
       </c>
-      <c r="AR42" s="42"/>
+      <c r="AR42" s="39"/>
       <c r="AS42" s="17">
         <v>118</v>
       </c>
@@ -4911,15 +4912,15 @@
       <c r="AO43" s="10">
         <v>0.40930232558099999</v>
       </c>
-      <c r="AP43" s="42">
+      <c r="AP43" s="39">
         <f t="shared" si="5"/>
         <v>351.99999999966002</v>
       </c>
-      <c r="AQ43" s="42">
+      <c r="AQ43" s="39">
         <f t="shared" si="3"/>
         <v>10.000000000233001</v>
       </c>
-      <c r="AR43" s="42"/>
+      <c r="AR43" s="39"/>
       <c r="AS43" s="17">
         <v>128</v>
       </c>
@@ -5013,15 +5014,15 @@
       <c r="AO44" s="10">
         <v>0.43678160919499998</v>
       </c>
-      <c r="AP44" s="42">
+      <c r="AP44" s="39">
         <f t="shared" si="5"/>
         <v>379.99999999964996</v>
       </c>
-      <c r="AQ44" s="42">
+      <c r="AQ44" s="39">
         <f t="shared" si="3"/>
         <v>27.999999999989939</v>
       </c>
-      <c r="AR44" s="42"/>
+      <c r="AR44" s="39"/>
       <c r="AS44" s="17">
         <v>134</v>
       </c>
@@ -5115,15 +5116,15 @@
       <c r="AO45" s="10">
         <v>0.45842696629200003</v>
       </c>
-      <c r="AP45" s="42">
+      <c r="AP45" s="39">
         <f t="shared" si="5"/>
         <v>407.99999999988</v>
       </c>
-      <c r="AQ45" s="42">
+      <c r="AQ45" s="39">
         <f t="shared" si="3"/>
         <v>28.000000000230045</v>
       </c>
-      <c r="AR45" s="42"/>
+      <c r="AR45" s="39"/>
       <c r="AS45" s="17">
         <v>134</v>
       </c>
@@ -5217,15 +5218,15 @@
       <c r="AO46" s="10">
         <v>0.47973713033900001</v>
       </c>
-      <c r="AP46" s="42">
+      <c r="AP46" s="39">
         <f t="shared" si="5"/>
         <v>437.999999999507</v>
       </c>
-      <c r="AQ46" s="42">
+      <c r="AQ46" s="39">
         <f t="shared" si="3"/>
         <v>29.999999999626993</v>
       </c>
-      <c r="AR46" s="42"/>
+      <c r="AR46" s="39"/>
       <c r="AS46" s="17">
         <v>136</v>
       </c>
@@ -5319,15 +5320,15 @@
       <c r="AO47" s="10">
         <v>0.49466950959400002</v>
       </c>
-      <c r="AP47" s="42">
+      <c r="AP47" s="39">
         <f t="shared" si="5"/>
         <v>463.99999999917202</v>
       </c>
-      <c r="AQ47" s="42">
+      <c r="AQ47" s="39">
         <f t="shared" si="3"/>
         <v>25.999999999665022</v>
       </c>
-      <c r="AR47" s="42"/>
+      <c r="AR47" s="39"/>
       <c r="AS47" s="17">
         <v>143</v>
       </c>
@@ -5421,15 +5422,15 @@
       <c r="AO48" s="10">
         <v>0.50367261280099995</v>
       </c>
-      <c r="AP48" s="42">
+      <c r="AP48" s="39">
         <f t="shared" si="5"/>
         <v>479.99999999935295</v>
       </c>
-      <c r="AQ48" s="42">
+      <c r="AQ48" s="39">
         <f t="shared" si="3"/>
         <v>16.000000000180933</v>
       </c>
-      <c r="AR48" s="42"/>
+      <c r="AR48" s="39"/>
       <c r="AS48" s="17">
         <v>145</v>
       </c>
@@ -5523,15 +5524,15 @@
       <c r="AO49" s="10">
         <v>0.50512295081900005</v>
       </c>
-      <c r="AP49" s="42">
+      <c r="AP49" s="39">
         <f t="shared" si="5"/>
         <v>492.99999999934403</v>
       </c>
-      <c r="AQ49" s="42">
+      <c r="AQ49" s="39">
         <f t="shared" si="3"/>
         <v>12.999999999991076</v>
       </c>
-      <c r="AR49" s="42"/>
+      <c r="AR49" s="39"/>
       <c r="AS49" s="17">
         <v>152</v>
       </c>
@@ -5628,15 +5629,15 @@
       <c r="AO50" s="10">
         <v>0.51448551448500002</v>
       </c>
-      <c r="AP50" s="42">
+      <c r="AP50" s="39">
         <f t="shared" si="5"/>
         <v>514.999999999485</v>
       </c>
-      <c r="AQ50" s="42">
+      <c r="AQ50" s="39">
         <f t="shared" si="3"/>
         <v>22.000000000140972</v>
       </c>
-      <c r="AR50" s="42"/>
+      <c r="AR50" s="39"/>
       <c r="AS50" s="17">
         <v>157</v>
       </c>
@@ -5733,15 +5734,15 @@
       <c r="AO51" s="10">
         <v>0.527377521613</v>
       </c>
-      <c r="AP51" s="42">
+      <c r="AP51" s="39">
         <f t="shared" si="5"/>
         <v>548.99999999913302</v>
       </c>
-      <c r="AQ51" s="42">
+      <c r="AQ51" s="39">
         <f t="shared" si="3"/>
         <v>33.999999999648026</v>
       </c>
-      <c r="AR51" s="42"/>
+      <c r="AR51" s="39"/>
       <c r="AS51" s="17">
         <v>162</v>
       </c>
@@ -5838,15 +5839,15 @@
       <c r="AO52" s="10">
         <v>0.54872280037800003</v>
       </c>
-      <c r="AP52" s="42">
+      <c r="AP52" s="39">
         <f t="shared" si="5"/>
         <v>579.99999999954605</v>
       </c>
-      <c r="AQ52" s="42">
+      <c r="AQ52" s="39">
         <f t="shared" si="3"/>
         <v>31.000000000413024</v>
       </c>
-      <c r="AR52" s="42"/>
+      <c r="AR52" s="39"/>
       <c r="AS52" s="17">
         <v>163</v>
       </c>
@@ -5943,15 +5944,15 @@
       <c r="AO53" s="10">
         <v>0.55442804428000003</v>
       </c>
-      <c r="AP53" s="42">
+      <c r="AP53" s="39">
         <f t="shared" si="5"/>
         <v>600.99999999952001</v>
       </c>
-      <c r="AQ53" s="42">
+      <c r="AQ53" s="39">
         <f t="shared" si="3"/>
         <v>20.999999999973966</v>
       </c>
-      <c r="AR53" s="42"/>
+      <c r="AR53" s="39"/>
       <c r="AS53" s="17">
         <v>167</v>
       </c>
@@ -6049,15 +6050,15 @@
       <c r="AO54" s="10">
         <v>0.56521739130399995</v>
       </c>
-      <c r="AP54" s="42">
+      <c r="AP54" s="39">
         <f t="shared" si="5"/>
         <v>623.99999999961597</v>
       </c>
-      <c r="AQ54" s="42">
+      <c r="AQ54" s="39">
         <f t="shared" si="3"/>
         <v>23.000000000095952</v>
       </c>
-      <c r="AR54" s="42"/>
+      <c r="AR54" s="39"/>
       <c r="AS54" s="17">
         <v>172</v>
       </c>
@@ -6155,15 +6156,15 @@
       <c r="AO55" s="10">
         <v>0.56860986547000003</v>
       </c>
-      <c r="AP55" s="42">
+      <c r="AP55" s="39">
         <f t="shared" si="5"/>
         <v>633.99999999905003</v>
       </c>
-      <c r="AQ55" s="42">
+      <c r="AQ55" s="39">
         <f t="shared" si="3"/>
         <v>9.9999999994340669</v>
       </c>
-      <c r="AR55" s="42"/>
+      <c r="AR55" s="39"/>
       <c r="AS55" s="17">
         <v>176</v>
       </c>
@@ -6261,15 +6262,15 @@
       <c r="AO56" s="10">
         <v>0.575111111111</v>
       </c>
-      <c r="AP56" s="42">
+      <c r="AP56" s="39">
         <f t="shared" si="5"/>
         <v>646.99999999987494</v>
       </c>
-      <c r="AQ56" s="42">
+      <c r="AQ56" s="39">
         <f t="shared" si="3"/>
         <v>13.000000000824912</v>
       </c>
-      <c r="AR56" s="42"/>
+      <c r="AR56" s="39"/>
       <c r="AS56" s="17">
         <v>177</v>
       </c>
@@ -6367,15 +6368,15 @@
       <c r="AO57" s="10">
         <v>0.58121158911299997</v>
       </c>
-      <c r="AP57" s="42">
+      <c r="AP57" s="39">
         <f t="shared" si="5"/>
         <v>661.99999999970692</v>
       </c>
-      <c r="AQ57" s="42">
+      <c r="AQ57" s="39">
         <f t="shared" si="3"/>
         <v>14.999999999831971</v>
       </c>
-      <c r="AR57" s="42"/>
+      <c r="AR57" s="39"/>
       <c r="AS57" s="17">
         <v>178</v>
       </c>
@@ -6473,15 +6474,15 @@
       <c r="AO58" s="10">
         <v>0.59165942658500004</v>
       </c>
-      <c r="AP58" s="42">
+      <c r="AP58" s="39">
         <f t="shared" si="5"/>
         <v>680.99999999933505</v>
       </c>
-      <c r="AQ58" s="42">
+      <c r="AQ58" s="39">
         <f t="shared" si="3"/>
         <v>18.99999999962813</v>
       </c>
-      <c r="AR58" s="42"/>
+      <c r="AR58" s="39"/>
       <c r="AS58" s="17">
         <v>182</v>
       </c>
@@ -6579,15 +6580,15 @@
       <c r="AO59" s="10">
         <v>0.61212121212100001</v>
       </c>
-      <c r="AP59" s="42">
+      <c r="AP59" s="39">
         <f t="shared" si="5"/>
         <v>706.999999999755</v>
       </c>
-      <c r="AQ59" s="42">
+      <c r="AQ59" s="39">
         <f t="shared" si="3"/>
         <v>26.000000000419959</v>
       </c>
-      <c r="AR59" s="42"/>
+      <c r="AR59" s="39"/>
       <c r="AS59" s="17">
         <v>187</v>
       </c>
@@ -6685,15 +6686,15 @@
       <c r="AO60" s="10">
         <v>0.62350936967600001</v>
       </c>
-      <c r="AP60" s="42">
+      <c r="AP60" s="39">
         <f t="shared" si="5"/>
         <v>731.99999999962404</v>
       </c>
-      <c r="AQ60" s="42">
+      <c r="AQ60" s="39">
         <f t="shared" si="3"/>
         <v>24.999999999869033</v>
       </c>
-      <c r="AR60" s="42"/>
+      <c r="AR60" s="39"/>
       <c r="AS60" s="17">
         <v>193</v>
       </c>
@@ -6791,15 +6792,15 @@
       <c r="AO61" s="10">
         <v>0.63282571911999996</v>
       </c>
-      <c r="AP61" s="42">
+      <c r="AP61" s="39">
         <f t="shared" si="5"/>
         <v>747.99999999983993</v>
       </c>
-      <c r="AQ61" s="42">
+      <c r="AQ61" s="39">
         <f t="shared" si="3"/>
         <v>16.000000000215891</v>
       </c>
-      <c r="AR61" s="42"/>
+      <c r="AR61" s="39"/>
       <c r="AS61" s="17">
         <v>199</v>
       </c>
@@ -6897,15 +6898,15 @@
       <c r="AO62" s="10">
         <v>0.63202011735100005</v>
       </c>
-      <c r="AP62" s="42">
+      <c r="AP62" s="39">
         <f t="shared" si="5"/>
         <v>753.99999999974307</v>
       </c>
-      <c r="AQ62" s="42">
+      <c r="AQ62" s="39">
         <f t="shared" si="3"/>
         <v>5.9999999999031388</v>
       </c>
-      <c r="AR62" s="42"/>
+      <c r="AR62" s="39"/>
       <c r="AS62" s="17">
         <v>200</v>
       </c>
@@ -7003,15 +7004,15 @@
       <c r="AO63" s="10">
         <v>0.63969974979099997</v>
       </c>
-      <c r="AP63" s="42">
+      <c r="AP63" s="39">
         <f t="shared" si="5"/>
         <v>766.99999999940894</v>
       </c>
-      <c r="AQ63" s="42">
+      <c r="AQ63" s="39">
         <f t="shared" si="3"/>
         <v>12.999999999665874</v>
       </c>
-      <c r="AR63" s="42"/>
+      <c r="AR63" s="39"/>
       <c r="AS63" s="17">
         <v>201</v>
       </c>
@@ -7109,15 +7110,15 @@
       <c r="AO64" s="10">
         <v>0.65041322314000005</v>
       </c>
-      <c r="AP64" s="42">
+      <c r="AP64" s="39">
         <f t="shared" si="5"/>
         <v>786.99999999940007</v>
       </c>
-      <c r="AQ64" s="42">
+      <c r="AQ64" s="39">
         <f t="shared" si="3"/>
         <v>19.999999999991132</v>
       </c>
-      <c r="AR64" s="42"/>
+      <c r="AR64" s="39"/>
       <c r="AS64" s="17">
         <v>205</v>
       </c>
@@ -7215,15 +7216,15 @@
       <c r="AO65" s="10">
         <v>0.65711947626800005</v>
       </c>
-      <c r="AP65" s="42">
+      <c r="AP65" s="39">
         <f t="shared" si="5"/>
         <v>802.99999999949603</v>
       </c>
-      <c r="AQ65" s="42">
+      <c r="AQ65" s="39">
         <f t="shared" si="3"/>
         <v>16.000000000095952</v>
       </c>
-      <c r="AR65" s="42"/>
+      <c r="AR65" s="39"/>
       <c r="AS65" s="17">
         <v>208</v>
       </c>
@@ -7321,15 +7322,15 @@
       <c r="AO66" s="10">
         <v>0.67373572593800002</v>
       </c>
-      <c r="AP66" s="42">
+      <c r="AP66" s="39">
         <f t="shared" si="5"/>
         <v>825.99999999998806</v>
       </c>
-      <c r="AQ66" s="42">
+      <c r="AQ66" s="39">
         <f t="shared" si="3"/>
         <v>23.000000000492037</v>
       </c>
-      <c r="AR66" s="42"/>
+      <c r="AR66" s="39"/>
       <c r="AS66" s="17">
         <v>210</v>
       </c>
@@ -7427,15 +7428,15 @@
       <c r="AO67" s="10">
         <v>0.67637540453</v>
       </c>
-      <c r="AP67" s="42">
+      <c r="AP67" s="39">
         <f t="shared" si="5"/>
         <v>835.99999999908005</v>
       </c>
-      <c r="AQ67" s="42">
+      <c r="AQ67" s="39">
         <f t="shared" si="3"/>
         <v>9.9999999990919832</v>
       </c>
-      <c r="AR67" s="42"/>
+      <c r="AR67" s="39"/>
       <c r="AS67" s="17">
         <v>214</v>
       </c>
@@ -7533,15 +7534,15 @@
       <c r="AO68" s="10">
         <v>0.68112449799100006</v>
       </c>
-      <c r="AP68" s="42">
+      <c r="AP68" s="39">
         <f t="shared" si="5"/>
         <v>847.99999999879503</v>
       </c>
-      <c r="AQ68" s="42">
+      <c r="AQ68" s="39">
         <f t="shared" si="3"/>
         <v>11.999999999714987</v>
       </c>
-      <c r="AR68" s="42"/>
+      <c r="AR68" s="39"/>
       <c r="AS68" s="17">
         <v>219</v>
       </c>
@@ -7639,15 +7640,15 @@
       <c r="AO69" s="10">
         <v>0.68425259792100002</v>
       </c>
-      <c r="AP69" s="42">
+      <c r="AP69" s="39">
         <f t="shared" si="5"/>
         <v>855.999999999171</v>
       </c>
-      <c r="AQ69" s="42">
+      <c r="AQ69" s="39">
         <f t="shared" si="3"/>
         <v>8.0000000003759624</v>
       </c>
-      <c r="AR69" s="42"/>
+      <c r="AR69" s="39"/>
       <c r="AS69" s="17">
         <v>222</v>
       </c>
@@ -7745,15 +7746,15 @@
       <c r="AO70" s="10">
         <v>0.68605577689200004</v>
       </c>
-      <c r="AP70" s="42">
+      <c r="AP70" s="39">
         <f t="shared" si="5"/>
         <v>860.9999999994601</v>
       </c>
-      <c r="AQ70" s="42">
+      <c r="AQ70" s="39">
         <f t="shared" si="3"/>
         <v>5.0000000002891056</v>
       </c>
-      <c r="AR70" s="42"/>
+      <c r="AR70" s="39"/>
       <c r="AS70" s="17">
         <v>224</v>
       </c>
@@ -7851,15 +7852,15 @@
       <c r="AO71" s="10">
         <v>0.69761904761899995</v>
       </c>
-      <c r="AP71" s="42">
+      <c r="AP71" s="39">
         <f t="shared" si="5"/>
         <v>878.99999999993997</v>
       </c>
-      <c r="AQ71" s="42">
+      <c r="AQ71" s="39">
         <f t="shared" si="3"/>
         <v>18.000000000479872</v>
       </c>
-      <c r="AR71" s="42"/>
+      <c r="AR71" s="39"/>
       <c r="AS71" s="17">
         <v>225</v>
       </c>
@@ -7957,15 +7958,15 @@
       <c r="AO72" s="10">
         <v>0.70671936758800002</v>
       </c>
-      <c r="AP72" s="42">
+      <c r="AP72" s="39">
         <f t="shared" si="5"/>
         <v>893.99999999882004</v>
       </c>
-      <c r="AQ72" s="42">
+      <c r="AQ72" s="39">
         <f t="shared" si="3"/>
         <v>14.999999998880071</v>
       </c>
-      <c r="AR72" s="42"/>
+      <c r="AR72" s="39"/>
       <c r="AS72" s="17">
         <v>227</v>
       </c>
@@ -8063,15 +8064,15 @@
       <c r="AO73" s="10">
         <v>0.71361132966100005</v>
       </c>
-      <c r="AP73" s="42">
+      <c r="AP73" s="39">
         <f t="shared" si="5"/>
         <v>906.99999999913109</v>
       </c>
-      <c r="AQ73" s="42">
+      <c r="AQ73" s="39">
         <f t="shared" si="3"/>
         <v>13.000000000311047</v>
       </c>
-      <c r="AR73" s="42"/>
+      <c r="AR73" s="39"/>
       <c r="AS73" s="17">
         <v>230</v>
       </c>
@@ -8169,15 +8170,15 @@
       <c r="AO74" s="10">
         <v>0.71865203761700003</v>
       </c>
-      <c r="AP74" s="42">
+      <c r="AP74" s="39">
         <f t="shared" si="5"/>
         <v>916.99999999929207</v>
       </c>
-      <c r="AQ74" s="42">
+      <c r="AQ74" s="39">
         <f t="shared" si="3"/>
         <v>10.000000000160981</v>
       </c>
-      <c r="AR74" s="42"/>
+      <c r="AR74" s="39"/>
       <c r="AS74" s="17">
         <v>232</v>
       </c>
@@ -8275,15 +8276,15 @@
       <c r="AO75" s="10">
         <v>0.72322126661399999</v>
       </c>
-      <c r="AP75" s="42">
+      <c r="AP75" s="39">
         <f t="shared" si="5"/>
         <v>924.99999999930594</v>
       </c>
-      <c r="AQ75" s="42">
+      <c r="AQ75" s="39">
         <f t="shared" ref="AQ75:AQ138" si="9">AP75-AP74</f>
         <v>8.0000000000138698</v>
       </c>
-      <c r="AR75" s="42"/>
+      <c r="AR75" s="39"/>
       <c r="AS75" s="17">
         <v>234</v>
       </c>
@@ -8381,15 +8382,15 @@
       <c r="AO76" s="10">
         <v>0.72854914196499998</v>
       </c>
-      <c r="AP76" s="42">
+      <c r="AP76" s="39">
         <f t="shared" si="5"/>
         <v>933.99999999912995</v>
       </c>
-      <c r="AQ76" s="42">
+      <c r="AQ76" s="39">
         <f t="shared" si="9"/>
         <v>8.9999999998240128</v>
       </c>
-      <c r="AR76" s="42"/>
+      <c r="AR76" s="39"/>
       <c r="AS76" s="17">
         <v>235</v>
       </c>
@@ -8487,15 +8488,15 @@
       <c r="AO77" s="10">
         <v>0.730319563522</v>
       </c>
-      <c r="AP77" s="42">
+      <c r="AP77" s="39">
         <f t="shared" si="5"/>
         <v>936.99999999872603</v>
       </c>
-      <c r="AQ77" s="42">
+      <c r="AQ77" s="39">
         <f t="shared" si="9"/>
         <v>2.9999999995960707</v>
       </c>
-      <c r="AR77" s="42"/>
+      <c r="AR77" s="39"/>
       <c r="AS77" s="17">
         <v>237</v>
       </c>
@@ -8593,15 +8594,15 @@
       <c r="AO78" s="10">
         <v>0.72987616098999997</v>
       </c>
-      <c r="AP78" s="42">
+      <c r="AP78" s="39">
         <f t="shared" si="5"/>
         <v>942.99999999907993</v>
       </c>
-      <c r="AQ78" s="42">
+      <c r="AQ78" s="39">
         <f t="shared" si="9"/>
         <v>6.0000000003539071</v>
       </c>
-      <c r="AR78" s="42"/>
+      <c r="AR78" s="39"/>
       <c r="AS78" s="17">
         <v>240</v>
       </c>
@@ -8699,15 +8700,15 @@
       <c r="AO79" s="10">
         <v>0.73533950617199995</v>
       </c>
-      <c r="AP79" s="42">
+      <c r="AP79" s="39">
         <f t="shared" si="5"/>
         <v>952.9999999989119</v>
       </c>
-      <c r="AQ79" s="42">
+      <c r="AQ79" s="39">
         <f t="shared" si="9"/>
         <v>9.9999999998319709</v>
       </c>
-      <c r="AR79" s="42"/>
+      <c r="AR79" s="39"/>
       <c r="AS79" s="17">
         <v>242</v>
       </c>
@@ -8805,15 +8806,15 @@
       <c r="AO80" s="10">
         <v>0.73558800922300005</v>
       </c>
-      <c r="AP80" s="42">
+      <c r="AP80" s="39">
         <f t="shared" si="5"/>
         <v>956.99999999912302</v>
       </c>
-      <c r="AQ80" s="42">
+      <c r="AQ80" s="39">
         <f t="shared" si="9"/>
         <v>4.0000000002111165</v>
       </c>
-      <c r="AR80" s="42"/>
+      <c r="AR80" s="39"/>
       <c r="AS80" s="17">
         <v>244</v>
       </c>
@@ -8911,15 +8912,15 @@
       <c r="AO81" s="10">
         <v>0.73700305810300004</v>
       </c>
-      <c r="AP81" s="42">
+      <c r="AP81" s="39">
         <f t="shared" si="5"/>
         <v>963.99999999872409</v>
       </c>
-      <c r="AQ81" s="42">
+      <c r="AQ81" s="39">
         <f t="shared" si="9"/>
         <v>6.9999999996010729</v>
       </c>
-      <c r="AR81" s="42"/>
+      <c r="AR81" s="39"/>
       <c r="AS81" s="17">
         <v>246</v>
       </c>
@@ -9017,15 +9018,15 @@
       <c r="AO82" s="10">
         <v>0.73896499238900004</v>
       </c>
-      <c r="AP82" s="42">
+      <c r="AP82" s="39">
         <f t="shared" si="5"/>
         <v>970.9999999991461</v>
       </c>
-      <c r="AQ82" s="42">
+      <c r="AQ82" s="39">
         <f t="shared" si="9"/>
         <v>7.0000000004220055</v>
       </c>
-      <c r="AR82" s="42"/>
+      <c r="AR82" s="39"/>
       <c r="AS82" s="17">
         <v>248</v>
       </c>
@@ -9123,15 +9124,15 @@
       <c r="AO83" s="10">
         <v>0.73899848254900002</v>
       </c>
-      <c r="AP83" s="42">
+      <c r="AP83" s="39">
         <f t="shared" si="5"/>
         <v>973.99999999958209</v>
       </c>
-      <c r="AQ83" s="42">
+      <c r="AQ83" s="39">
         <f t="shared" si="9"/>
         <v>3.000000000435989</v>
       </c>
-      <c r="AR83" s="42"/>
+      <c r="AR83" s="39"/>
       <c r="AS83" s="17">
         <v>249</v>
       </c>
@@ -9229,15 +9230,15 @@
       <c r="AO84" s="10">
         <v>0.74074074073999996</v>
       </c>
-      <c r="AP84" s="42">
+      <c r="AP84" s="39">
         <f t="shared" si="5"/>
         <v>979.99999999901991</v>
       </c>
-      <c r="AQ84" s="42">
+      <c r="AQ84" s="39">
         <f t="shared" si="9"/>
         <v>5.9999999994378186</v>
       </c>
-      <c r="AR84" s="42"/>
+      <c r="AR84" s="39"/>
       <c r="AS84" s="17">
         <v>250</v>
       </c>
@@ -9335,15 +9336,15 @@
       <c r="AO85" s="10">
         <v>0.74358974358899999</v>
       </c>
-      <c r="AP85" s="42">
+      <c r="AP85" s="39">
         <f t="shared" si="5"/>
         <v>985.99999999901399</v>
       </c>
-      <c r="AQ85" s="42">
+      <c r="AQ85" s="39">
         <f t="shared" si="9"/>
         <v>5.9999999999940883</v>
       </c>
-      <c r="AR85" s="42"/>
+      <c r="AR85" s="39"/>
       <c r="AS85" s="17">
         <v>251</v>
       </c>
@@ -9441,15 +9442,15 @@
       <c r="AO86" s="10">
         <v>0.74662668665599996</v>
       </c>
-      <c r="AP86" s="42">
+      <c r="AP86" s="39">
         <f t="shared" ref="AP86:AP149" si="11">AO86*E86</f>
         <v>995.99999999910392</v>
       </c>
-      <c r="AQ86" s="42">
+      <c r="AQ86" s="39">
         <f t="shared" si="9"/>
         <v>10.000000000089926</v>
       </c>
-      <c r="AR86" s="42"/>
+      <c r="AR86" s="39"/>
       <c r="AS86" s="17">
         <v>251</v>
       </c>
@@ -9547,15 +9548,15 @@
       <c r="AO87" s="10">
         <v>0.75710014947600002</v>
       </c>
-      <c r="AP87" s="42">
+      <c r="AP87" s="39">
         <f t="shared" si="11"/>
         <v>1012.999999998888</v>
       </c>
-      <c r="AQ87" s="42">
+      <c r="AQ87" s="39">
         <f t="shared" si="9"/>
         <v>16.999999999784109</v>
       </c>
-      <c r="AR87" s="42"/>
+      <c r="AR87" s="39"/>
       <c r="AS87" s="17">
         <v>251</v>
       </c>
@@ -9653,15 +9654,15 @@
       <c r="AO88" s="10">
         <v>0.75782414307000001</v>
       </c>
-      <c r="AP88" s="42">
+      <c r="AP88" s="39">
         <f t="shared" si="11"/>
         <v>1016.99999999994</v>
       </c>
-      <c r="AQ88" s="42">
+      <c r="AQ88" s="39">
         <f t="shared" si="9"/>
         <v>4.0000000010519443</v>
       </c>
-      <c r="AR88" s="42"/>
+      <c r="AR88" s="39"/>
       <c r="AS88" s="17">
         <v>252</v>
       </c>
@@ -9759,15 +9760,15 @@
       <c r="AO89" s="10">
         <v>0.76133828996200004</v>
       </c>
-      <c r="AP89" s="42">
+      <c r="AP89" s="39">
         <f t="shared" si="11"/>
         <v>1023.9999999988901</v>
       </c>
-      <c r="AQ89" s="42">
+      <c r="AQ89" s="39">
         <f t="shared" si="9"/>
         <v>6.9999999989501021</v>
       </c>
-      <c r="AR89" s="42"/>
+      <c r="AR89" s="39"/>
       <c r="AS89" s="17">
         <v>252</v>
       </c>
@@ -9865,15 +9866,15 @@
       <c r="AO90" s="10">
         <v>0.75905395417499999</v>
       </c>
-      <c r="AP90" s="42">
+      <c r="AP90" s="39">
         <f t="shared" si="11"/>
         <v>1026.9999999987749</v>
       </c>
-      <c r="AQ90" s="42">
+      <c r="AQ90" s="39">
         <f t="shared" si="9"/>
         <v>2.9999999998848352</v>
       </c>
-      <c r="AR90" s="42"/>
+      <c r="AR90" s="39"/>
       <c r="AS90" s="17">
         <v>252</v>
       </c>
@@ -9971,15 +9972,15 @@
       <c r="AO91" s="10">
         <v>0.75940959409499997</v>
       </c>
-      <c r="AP91" s="42">
+      <c r="AP91" s="39">
         <f t="shared" si="11"/>
         <v>1028.9999999987249</v>
       </c>
-      <c r="AQ91" s="42">
+      <c r="AQ91" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999999499778</v>
       </c>
-      <c r="AR91" s="42"/>
+      <c r="AR91" s="39"/>
       <c r="AS91" s="17">
         <v>252</v>
       </c>
@@ -10077,15 +10078,15 @@
       <c r="AO92" s="10">
         <v>0.75791022810800002</v>
       </c>
-      <c r="AP92" s="42">
+      <c r="AP92" s="39">
         <f t="shared" si="11"/>
         <v>1029.999999998772</v>
       </c>
-      <c r="AQ92" s="42">
+      <c r="AQ92" s="39">
         <f t="shared" si="9"/>
         <v>1.0000000000470664</v>
       </c>
-      <c r="AR92" s="42"/>
+      <c r="AR92" s="39"/>
       <c r="AS92" s="17">
         <v>253</v>
       </c>
@@ -10183,15 +10184,15 @@
       <c r="AO93" s="10">
         <v>0.76246334310800001</v>
       </c>
-      <c r="AP93" s="42">
+      <c r="AP93" s="39">
         <f t="shared" si="11"/>
         <v>1039.999999999312</v>
       </c>
-      <c r="AQ93" s="42">
+      <c r="AQ93" s="39">
         <f t="shared" si="9"/>
         <v>10.000000000540012</v>
       </c>
-      <c r="AR93" s="42"/>
+      <c r="AR93" s="39"/>
       <c r="AS93" s="17">
         <v>254</v>
       </c>
@@ -10289,15 +10290,15 @@
       <c r="AO94" s="10">
         <v>0.76832844574699999</v>
       </c>
-      <c r="AP94" s="42">
+      <c r="AP94" s="39">
         <f t="shared" si="11"/>
         <v>1047.9999999989079</v>
       </c>
-      <c r="AQ94" s="42">
+      <c r="AQ94" s="39">
         <f t="shared" si="9"/>
         <v>7.999999999595957</v>
       </c>
-      <c r="AR94" s="42"/>
+      <c r="AR94" s="39"/>
       <c r="AS94" s="17">
         <v>255</v>
       </c>
@@ -10395,15 +10396,15 @@
       <c r="AO95" s="10">
         <v>0.76973684210500004</v>
       </c>
-      <c r="AP95" s="42">
+      <c r="AP95" s="39">
         <f t="shared" si="11"/>
         <v>1052.9999999996401</v>
       </c>
-      <c r="AQ95" s="42">
+      <c r="AQ95" s="39">
         <f t="shared" si="9"/>
         <v>5.0000000007321432</v>
       </c>
-      <c r="AR95" s="42"/>
+      <c r="AR95" s="39"/>
       <c r="AS95" s="17">
         <v>258</v>
       </c>
@@ -10501,15 +10502,15 @@
       <c r="AO96" s="10">
         <v>0.76833696441499999</v>
       </c>
-      <c r="AP96" s="42">
+      <c r="AP96" s="39">
         <f t="shared" si="11"/>
         <v>1057.999999999455</v>
       </c>
-      <c r="AQ96" s="42">
+      <c r="AQ96" s="39">
         <f t="shared" si="9"/>
         <v>4.9999999998149178</v>
       </c>
-      <c r="AR96" s="42"/>
+      <c r="AR96" s="39"/>
       <c r="AS96" s="17">
         <v>258</v>
       </c>
@@ -10607,15 +10608,15 @@
       <c r="AO97" s="10">
         <v>0.76755973931900001</v>
       </c>
-      <c r="AP97" s="42">
+      <c r="AP97" s="39">
         <f t="shared" si="11"/>
         <v>1059.9999999995391</v>
       </c>
-      <c r="AQ97" s="42">
+      <c r="AQ97" s="39">
         <f t="shared" si="9"/>
         <v>2.0000000000841283</v>
       </c>
-      <c r="AR97" s="42"/>
+      <c r="AR97" s="39"/>
       <c r="AS97" s="17">
         <v>258</v>
       </c>
@@ -10709,15 +10710,15 @@
       <c r="AO98" s="10">
         <v>0.76750902526999998</v>
       </c>
-      <c r="AP98" s="42">
+      <c r="AP98" s="39">
         <f t="shared" si="11"/>
         <v>1062.99999999895</v>
       </c>
-      <c r="AQ98" s="42">
+      <c r="AQ98" s="39">
         <f t="shared" si="9"/>
         <v>2.9999999994108748</v>
       </c>
-      <c r="AR98" s="42"/>
+      <c r="AR98" s="39"/>
       <c r="AS98" s="17">
         <v>259</v>
       </c>
@@ -10811,15 +10812,15 @@
       <c r="AO99" s="10">
         <v>0.76839826839799996</v>
       </c>
-      <c r="AP99" s="42">
+      <c r="AP99" s="39">
         <f t="shared" si="11"/>
         <v>1064.999999999628</v>
       </c>
-      <c r="AQ99" s="42">
+      <c r="AQ99" s="39">
         <f t="shared" si="9"/>
         <v>2.0000000006780283</v>
       </c>
-      <c r="AR99" s="42"/>
+      <c r="AR99" s="39"/>
       <c r="AS99" s="17">
         <v>259</v>
       </c>
@@ -10913,15 +10914,15 @@
       <c r="AO100" s="10">
         <v>0.76834532374099995</v>
       </c>
-      <c r="AP100" s="42">
+      <c r="AP100" s="39">
         <f t="shared" si="11"/>
         <v>1067.99999999999</v>
       </c>
-      <c r="AQ100" s="42">
+      <c r="AQ100" s="39">
         <f t="shared" si="9"/>
         <v>3.0000000003619789</v>
       </c>
-      <c r="AR100" s="42"/>
+      <c r="AR100" s="39"/>
       <c r="AS100" s="17">
         <v>260</v>
       </c>
@@ -11015,15 +11016,15 @@
       <c r="AO101" s="10">
         <v>0.76790830945499999</v>
       </c>
-      <c r="AP101" s="42">
+      <c r="AP101" s="39">
         <f t="shared" si="11"/>
         <v>1071.9999999991801</v>
       </c>
-      <c r="AQ101" s="42">
+      <c r="AQ101" s="39">
         <f t="shared" si="9"/>
         <v>3.999999999190095</v>
       </c>
-      <c r="AR101" s="42"/>
+      <c r="AR101" s="39"/>
       <c r="AS101" s="17">
         <v>261</v>
       </c>
@@ -11117,11 +11118,11 @@
       <c r="AO102" s="10">
         <v>0.76642857142800003</v>
       </c>
-      <c r="AP102" s="42">
+      <c r="AP102" s="39">
         <f t="shared" si="11"/>
         <v>1072.9999999992001</v>
       </c>
-      <c r="AQ102" s="42">
+      <c r="AQ102" s="39">
         <f t="shared" si="9"/>
         <v>1.0000000000200089</v>
       </c>
@@ -11222,11 +11223,11 @@
       <c r="AO103" s="10">
         <v>0.76742532005599995</v>
       </c>
-      <c r="AP103" s="42">
+      <c r="AP103" s="39">
         <f t="shared" si="11"/>
         <v>1078.999999998736</v>
       </c>
-      <c r="AQ103" s="42">
+      <c r="AQ103" s="39">
         <f t="shared" si="9"/>
         <v>5.9999999995359303</v>
       </c>
@@ -11327,11 +11328,11 @@
       <c r="AO104" s="10">
         <v>0.768085106382</v>
       </c>
-      <c r="AP104" s="42">
+      <c r="AP104" s="39">
         <f t="shared" si="11"/>
         <v>1082.9999999986201</v>
       </c>
-      <c r="AQ104" s="42">
+      <c r="AQ104" s="39">
         <f t="shared" si="9"/>
         <v>3.9999999998840394</v>
       </c>
@@ -11432,11 +11433,11 @@
       <c r="AO105" s="10">
         <v>0.76537102473399998</v>
       </c>
-      <c r="AP105" s="42">
+      <c r="AP105" s="39">
         <f t="shared" si="11"/>
         <v>1082.9999999986101</v>
       </c>
-      <c r="AQ105" s="42">
+      <c r="AQ105" s="39">
         <f t="shared" si="9"/>
         <v>-1.0004441719502211E-11</v>
       </c>
@@ -11537,11 +11538,11 @@
       <c r="AO106" s="10">
         <v>0.76227208976100003</v>
       </c>
-      <c r="AP106" s="42">
+      <c r="AP106" s="39">
         <f t="shared" si="11"/>
         <v>1086.999999999186</v>
       </c>
-      <c r="AQ106" s="42">
+      <c r="AQ106" s="39">
         <f t="shared" si="9"/>
         <v>4.0000000005759375</v>
       </c>
@@ -11642,11 +11643,11 @@
       <c r="AO107" s="10">
         <v>0.76117318435699999</v>
       </c>
-      <c r="AP107" s="42">
+      <c r="AP107" s="39">
         <f t="shared" si="11"/>
         <v>1089.999999999224</v>
       </c>
-      <c r="AQ107" s="42">
+      <c r="AQ107" s="39">
         <f t="shared" si="9"/>
         <v>3.0000000000379714</v>
       </c>
@@ -11747,11 +11748,11 @@
       <c r="AO108" s="10">
         <v>0.76025017373100001</v>
       </c>
-      <c r="AP108" s="42">
+      <c r="AP108" s="39">
         <f t="shared" si="11"/>
         <v>1093.9999999989091</v>
       </c>
-      <c r="AQ108" s="42">
+      <c r="AQ108" s="39">
         <f t="shared" si="9"/>
         <v>3.9999999996850875</v>
       </c>
@@ -11852,11 +11853,11 @@
       <c r="AO109" s="10">
         <v>0.76071922544899995</v>
       </c>
-      <c r="AP109" s="42">
+      <c r="AP109" s="39">
         <f t="shared" si="11"/>
         <v>1099.999999999254</v>
       </c>
-      <c r="AQ109" s="42">
+      <c r="AQ109" s="39">
         <f t="shared" si="9"/>
         <v>6.0000000003449259</v>
       </c>
@@ -11957,11 +11958,11 @@
       <c r="AO110" s="10">
         <v>0.76256022023299996</v>
       </c>
-      <c r="AP110" s="42">
+      <c r="AP110" s="39">
         <f t="shared" si="11"/>
         <v>1107.9999999985489</v>
       </c>
-      <c r="AQ110" s="42">
+      <c r="AQ110" s="39">
         <f t="shared" si="9"/>
         <v>7.9999999992949142</v>
       </c>
@@ -12062,11 +12063,11 @@
       <c r="AO111" s="10">
         <v>0.76353666895100003</v>
       </c>
-      <c r="AP111" s="42">
+      <c r="AP111" s="39">
         <f t="shared" si="11"/>
         <v>1113.9999999995091</v>
       </c>
-      <c r="AQ111" s="42">
+      <c r="AQ111" s="39">
         <f t="shared" si="9"/>
         <v>6.000000000960199</v>
       </c>
@@ -12167,11 +12168,11 @@
       <c r="AO112" s="10">
         <v>0.76454483230600001</v>
       </c>
-      <c r="AP112" s="42">
+      <c r="AP112" s="39">
         <f t="shared" si="11"/>
         <v>1116.9999999990659</v>
       </c>
-      <c r="AQ112" s="42">
+      <c r="AQ112" s="39">
         <f t="shared" si="9"/>
         <v>2.9999999995568487</v>
       </c>
@@ -12272,11 +12273,11 @@
       <c r="AO113" s="10">
         <v>0.76502732240399995</v>
       </c>
-      <c r="AP113" s="42">
+      <c r="AP113" s="39">
         <f t="shared" si="11"/>
         <v>1119.9999999994559</v>
       </c>
-      <c r="AQ113" s="42">
+      <c r="AQ113" s="39">
         <f t="shared" si="9"/>
         <v>3.0000000003899459</v>
       </c>
@@ -12377,11 +12378,11 @@
       <c r="AO114" s="10">
         <v>0.76650782845400001</v>
       </c>
-      <c r="AP114" s="42">
+      <c r="AP114" s="39">
         <f t="shared" si="11"/>
         <v>1125.9999999989261</v>
       </c>
-      <c r="AQ114" s="42">
+      <c r="AQ114" s="39">
         <f t="shared" si="9"/>
         <v>5.9999999994702193</v>
       </c>
@@ -12482,11 +12483,11 @@
       <c r="AO115" s="10">
         <v>0.76897018970099995</v>
       </c>
-      <c r="AP115" s="42">
+      <c r="AP115" s="39">
         <f t="shared" si="11"/>
         <v>1134.999999998676</v>
       </c>
-      <c r="AQ115" s="42">
+      <c r="AQ115" s="39">
         <f t="shared" si="9"/>
         <v>8.999999999749889</v>
       </c>
@@ -12587,11 +12588,11 @@
       <c r="AO116" s="10">
         <v>0.77454299255199999</v>
       </c>
-      <c r="AP116" s="42">
+      <c r="AP116" s="39">
         <f t="shared" si="11"/>
         <v>1143.999999999304</v>
       </c>
-      <c r="AQ116" s="42">
+      <c r="AQ116" s="39">
         <f t="shared" si="9"/>
         <v>9.0000000006280061</v>
       </c>
@@ -12692,11 +12693,11 @@
       <c r="AO117" s="10">
         <v>0.77597840755699998</v>
       </c>
-      <c r="AP117" s="42">
+      <c r="AP117" s="39">
         <f t="shared" si="11"/>
         <v>1149.9999999994741</v>
       </c>
-      <c r="AQ117" s="42">
+      <c r="AQ117" s="39">
         <f t="shared" si="9"/>
         <v>6.0000000001700755</v>
       </c>
@@ -12797,11 +12798,11 @@
       <c r="AO118" s="10">
         <v>0.77523553162799996</v>
       </c>
-      <c r="AP118" s="42">
+      <c r="AP118" s="39">
         <f t="shared" si="11"/>
         <v>1151.9999999992081</v>
       </c>
-      <c r="AQ118" s="42">
+      <c r="AQ118" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999997339728</v>
       </c>
@@ -12902,11 +12903,11 @@
       <c r="AO119" s="10">
         <v>0.77294038847900004</v>
       </c>
-      <c r="AP119" s="42">
+      <c r="AP119" s="39">
         <f t="shared" si="11"/>
         <v>1153.9999999991471</v>
       </c>
-      <c r="AQ119" s="42">
+      <c r="AQ119" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999999390639</v>
       </c>
@@ -13007,11 +13008,11 @@
       <c r="AO120" s="10">
         <v>0.771695594125</v>
       </c>
-      <c r="AP120" s="42">
+      <c r="AP120" s="39">
         <f t="shared" si="11"/>
         <v>1155.9999999992499</v>
       </c>
-      <c r="AQ120" s="42">
+      <c r="AQ120" s="39">
         <f t="shared" si="9"/>
         <v>2.0000000001027729</v>
       </c>
@@ -13112,11 +13113,11 @@
       <c r="AO121" s="10">
         <v>0.77296937416699996</v>
       </c>
-      <c r="AP121" s="42">
+      <c r="AP121" s="39">
         <f t="shared" si="11"/>
         <v>1160.999999998834</v>
       </c>
-      <c r="AQ121" s="42">
+      <c r="AQ121" s="39">
         <f t="shared" si="9"/>
         <v>4.9999999995841335</v>
       </c>
@@ -13217,11 +13218,11 @@
       <c r="AO122" s="10">
         <v>0.77248677248599995</v>
       </c>
-      <c r="AP122" s="42">
+      <c r="AP122" s="39">
         <f t="shared" si="11"/>
         <v>1167.999999998832</v>
       </c>
-      <c r="AQ122" s="42">
+      <c r="AQ122" s="39">
         <f t="shared" si="9"/>
         <v>6.9999999999979536</v>
       </c>
@@ -13322,11 +13323,11 @@
       <c r="AO123" s="10">
         <v>0.77506596305999997</v>
       </c>
-      <c r="AP123" s="42">
+      <c r="AP123" s="39">
         <f t="shared" si="11"/>
         <v>1174.99999999896</v>
       </c>
-      <c r="AQ123" s="42">
+      <c r="AQ123" s="39">
         <f t="shared" si="9"/>
         <v>7.0000000001280114</v>
       </c>
@@ -13427,11 +13428,11 @@
       <c r="AO124" s="10">
         <v>0.77281680892899995</v>
       </c>
-      <c r="AP124" s="42">
+      <c r="AP124" s="39">
         <f t="shared" si="11"/>
         <v>1176.999999998867</v>
       </c>
-      <c r="AQ124" s="42">
+      <c r="AQ124" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999999070042</v>
       </c>
@@ -13536,11 +13537,11 @@
       <c r="AO125" s="10">
         <v>0.77391874180800002</v>
       </c>
-      <c r="AP125" s="42">
+      <c r="AP125" s="39">
         <f t="shared" si="11"/>
         <v>1180.999999999008</v>
       </c>
-      <c r="AQ125" s="42">
+      <c r="AQ125" s="39">
         <f t="shared" si="9"/>
         <v>4.0000000001409717</v>
       </c>
@@ -13645,11 +13646,11 @@
       <c r="AO126" s="10">
         <v>0.77198697068400002</v>
       </c>
-      <c r="AP126" s="42">
+      <c r="AP126" s="39">
         <f t="shared" si="11"/>
         <v>1184.99999999994</v>
       </c>
-      <c r="AQ126" s="42">
+      <c r="AQ126" s="39">
         <f t="shared" si="9"/>
         <v>4.0000000009320047</v>
       </c>
@@ -13754,11 +13755,11 @@
       <c r="AO127" s="10">
         <v>0.77293428757299998</v>
       </c>
-      <c r="AP127" s="42">
+      <c r="AP127" s="39">
         <f t="shared" si="11"/>
         <v>1187.999999999701</v>
       </c>
-      <c r="AQ127" s="42">
+      <c r="AQ127" s="39">
         <f t="shared" si="9"/>
         <v>2.9999999997610303</v>
       </c>
@@ -13863,11 +13864,11 @@
       <c r="AO128" s="10">
         <v>0.76923076923</v>
       </c>
-      <c r="AP128" s="42">
+      <c r="AP128" s="39">
         <f t="shared" si="11"/>
         <v>1189.9999999988099</v>
       </c>
-      <c r="AQ128" s="42">
+      <c r="AQ128" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999991089226</v>
       </c>
@@ -13972,11 +13973,11 @@
       <c r="AO129" s="10">
         <v>0.77520873474600005</v>
       </c>
-      <c r="AP129" s="42">
+      <c r="AP129" s="39">
         <f t="shared" si="11"/>
         <v>1206.9999999995221</v>
       </c>
-      <c r="AQ129" s="42">
+      <c r="AQ129" s="39">
         <f t="shared" si="9"/>
         <v>17.000000000712134</v>
       </c>
@@ -14081,11 +14082,11 @@
       <c r="AO130" s="10">
         <v>0.77784891165100001</v>
       </c>
-      <c r="AP130" s="42">
+      <c r="AP130" s="39">
         <f t="shared" si="11"/>
         <v>1214.999999998862</v>
       </c>
-      <c r="AQ130" s="42">
+      <c r="AQ130" s="39">
         <f t="shared" si="9"/>
         <v>7.9999999993399342</v>
       </c>
@@ -14190,11 +14191,11 @@
       <c r="AO131" s="10">
         <v>0.78047223994799997</v>
       </c>
-      <c r="AP131" s="42">
+      <c r="AP131" s="39">
         <f t="shared" si="11"/>
         <v>1222.9999999985159</v>
       </c>
-      <c r="AQ131" s="42">
+      <c r="AQ131" s="39">
         <f t="shared" si="9"/>
         <v>7.9999999996539373</v>
       </c>
@@ -14299,11 +14300,11 @@
       <c r="AO132" s="10">
         <v>0.78025477707000002</v>
       </c>
-      <c r="AP132" s="42">
+      <c r="AP132" s="39">
         <f t="shared" si="11"/>
         <v>1224.9999999999</v>
       </c>
-      <c r="AQ132" s="42">
+      <c r="AQ132" s="39">
         <f t="shared" si="9"/>
         <v>2.0000000013840236</v>
       </c>
@@ -14408,11 +14409,11 @@
       <c r="AO133" s="10">
         <v>0.78003814367400004</v>
       </c>
-      <c r="AP133" s="42">
+      <c r="AP133" s="39">
         <f t="shared" si="11"/>
         <v>1226.9999999992021</v>
       </c>
-      <c r="AQ133" s="42">
+      <c r="AQ133" s="39">
         <f t="shared" si="9"/>
         <v>1.9999999993021902</v>
       </c>
@@ -14517,11 +14518,11 @@
       <c r="AO134" s="10">
         <v>0.77672359266199997</v>
       </c>
-      <c r="AP134" s="42">
+      <c r="AP134" s="39">
         <f t="shared" si="11"/>
         <v>1227.9999999986219</v>
       </c>
-      <c r="AQ134" s="42">
+      <c r="AQ134" s="39">
         <f t="shared" si="9"/>
         <v>0.99999999941974238</v>
       </c>
@@ -14626,11 +14627,11 @@
       <c r="AO135" s="10">
         <v>0.77763739734600001</v>
       </c>
-      <c r="AP135" s="42">
+      <c r="AP135" s="39">
         <f t="shared" si="11"/>
         <v>1230.9999999987181</v>
       </c>
-      <c r="AQ135" s="42">
+      <c r="AQ135" s="39">
         <f t="shared" si="9"/>
         <v>3.0000000000961791</v>
       </c>
@@ -14735,11 +14736,11 @@
       <c r="AO136" s="10">
         <v>0.77694235588899996</v>
       </c>
-      <c r="AP136" s="42">
+      <c r="AP136" s="39">
         <f t="shared" si="11"/>
         <v>1239.999999998844</v>
       </c>
-      <c r="AQ136" s="42">
+      <c r="AQ136" s="39">
         <f t="shared" si="9"/>
         <v>9.000000000125965</v>
       </c>
@@ -14844,11 +14845,11 @@
       <c r="AO137" s="10">
         <v>0.779512804497</v>
       </c>
-      <c r="AP137" s="42">
+      <c r="AP137" s="39">
         <f t="shared" si="11"/>
         <v>1247.9999999996969</v>
       </c>
-      <c r="AQ137" s="42">
+      <c r="AQ137" s="39">
         <f t="shared" si="9"/>
         <v>8.0000000008528787</v>
       </c>
@@ -14953,11 +14954,11 @@
       <c r="AO138" s="10">
         <v>0.78033602986899997</v>
       </c>
-      <c r="AP138" s="42">
+      <c r="AP138" s="39">
         <f t="shared" si="11"/>
         <v>1253.999999999483</v>
       </c>
-      <c r="AQ138" s="42">
+      <c r="AQ138" s="39">
         <f t="shared" si="9"/>
         <v>5.9999999997860414</v>
       </c>
@@ -15062,11 +15063,11 @@
       <c r="AO139" s="10">
         <v>0.77894736842099999</v>
       </c>
-      <c r="AP139" s="42">
+      <c r="AP139" s="39">
         <f t="shared" si="11"/>
         <v>1257.999999999915</v>
       </c>
-      <c r="AQ139" s="42">
+      <c r="AQ139" s="39">
         <f t="shared" ref="AQ139:AQ202" si="16">AP139-AP138</f>
         <v>4.00000000043201</v>
       </c>
@@ -15179,11 +15180,11 @@
       <c r="AO140" s="10">
         <v>0.78011117973999999</v>
       </c>
-      <c r="AP140" s="42">
+      <c r="AP140" s="39">
         <f t="shared" si="11"/>
         <v>1262.99999999906</v>
       </c>
-      <c r="AQ140" s="42">
+      <c r="AQ140" s="39">
         <f t="shared" si="16"/>
         <v>4.999999999145075</v>
       </c>
@@ -15296,11 +15297,11 @@
       <c r="AO141" s="10">
         <v>0.78051787916100002</v>
       </c>
-      <c r="AP141" s="42">
+      <c r="AP141" s="39">
         <f t="shared" si="11"/>
         <v>1265.9999999991421</v>
       </c>
-      <c r="AQ141" s="42">
+      <c r="AQ141" s="39">
         <f t="shared" si="16"/>
         <v>3.0000000000820819</v>
       </c>
@@ -15413,11 +15414,11 @@
       <c r="AO142" s="10">
         <v>0.77696078431299997</v>
       </c>
-      <c r="AP142" s="42">
+      <c r="AP142" s="39">
         <f t="shared" si="11"/>
         <v>1267.9999999988161</v>
       </c>
-      <c r="AQ142" s="42">
+      <c r="AQ142" s="39">
         <f t="shared" si="16"/>
         <v>1.9999999996739461</v>
       </c>
@@ -15530,11 +15531,11 @@
       <c r="AO143" s="10">
         <v>0.77440873256499998</v>
       </c>
-      <c r="AP143" s="42">
+      <c r="AP143" s="39">
         <f t="shared" si="11"/>
         <v>1276.9999999996849</v>
       </c>
-      <c r="AQ143" s="42">
+      <c r="AQ143" s="39">
         <f t="shared" si="16"/>
         <v>9.0000000008687948</v>
       </c>
@@ -15647,11 +15648,11 @@
       <c r="AO144" s="10">
         <v>0.77275467148800003</v>
       </c>
-      <c r="AP144" s="42">
+      <c r="AP144" s="39">
         <f t="shared" si="11"/>
         <v>1281.9999999985921</v>
       </c>
-      <c r="AQ144" s="42">
+      <c r="AQ144" s="39">
         <f t="shared" si="16"/>
         <v>4.9999999989072421</v>
       </c>
@@ -15764,11 +15765,11 @@
       <c r="AO145" s="10">
         <v>0.77458033573100005</v>
       </c>
-      <c r="AP145" s="42">
+      <c r="AP145" s="39">
         <f t="shared" si="11"/>
         <v>1291.9999999993081</v>
       </c>
-      <c r="AQ145" s="42">
+      <c r="AQ145" s="39">
         <f t="shared" si="16"/>
         <v>10.000000000716</v>
       </c>
@@ -15881,11 +15882,11 @@
       <c r="AO146" s="10">
         <v>0.77340488968300003</v>
       </c>
-      <c r="AP146" s="42">
+      <c r="AP146" s="39">
         <f t="shared" si="11"/>
         <v>1296.9999999983911</v>
       </c>
-      <c r="AQ146" s="42">
+      <c r="AQ146" s="39">
         <f t="shared" si="16"/>
         <v>4.999999999083002</v>
       </c>
@@ -15998,11 +15999,11 @@
       <c r="AO147" s="10">
         <v>0.77348394768100004</v>
       </c>
-      <c r="AP147" s="42">
+      <c r="AP147" s="39">
         <f t="shared" si="11"/>
         <v>1300.999999999442</v>
       </c>
-      <c r="AQ147" s="42">
+      <c r="AQ147" s="39">
         <f t="shared" si="16"/>
         <v>4.0000000010509211</v>
       </c>
@@ -16115,11 +16116,11 @@
       <c r="AO148" s="10">
         <v>0.76584507042200001</v>
       </c>
-      <c r="AP148" s="42">
+      <c r="AP148" s="39">
         <f t="shared" si="11"/>
         <v>1304.999999999088</v>
       </c>
-      <c r="AQ148" s="42">
+      <c r="AQ148" s="39">
         <f t="shared" si="16"/>
         <v>3.9999999996459792</v>
       </c>
@@ -16235,11 +16236,11 @@
       <c r="AO149" s="10">
         <v>0.76793002915399999</v>
       </c>
-      <c r="AP149" s="42">
+      <c r="AP149" s="39">
         <f t="shared" si="11"/>
         <v>1316.9999999991101</v>
       </c>
-      <c r="AQ149" s="42">
+      <c r="AQ149" s="39">
         <f t="shared" si="16"/>
         <v>12.000000000022055</v>
       </c>
@@ -16355,11 +16356,11 @@
       <c r="AO150" s="10">
         <v>0.76820809248499999</v>
       </c>
-      <c r="AP150" s="42">
+      <c r="AP150" s="39">
         <f t="shared" ref="AP150:AP213" si="20">AO150*E150</f>
         <v>1328.99999999905</v>
       </c>
-      <c r="AQ150" s="42">
+      <c r="AQ150" s="39">
         <f t="shared" si="16"/>
         <v>11.999999999939973</v>
       </c>
@@ -16475,11 +16476,11 @@
       <c r="AO151" s="10">
         <v>0.77037887485599998</v>
       </c>
-      <c r="AP151" s="42">
+      <c r="AP151" s="39">
         <f t="shared" si="20"/>
         <v>1341.9999999991519</v>
       </c>
-      <c r="AQ151" s="42">
+      <c r="AQ151" s="39">
         <f t="shared" si="16"/>
         <v>13.000000000101863</v>
       </c>
@@ -16595,11 +16596,11 @@
       <c r="AO152" s="10">
         <v>0.76795895096900002</v>
       </c>
-      <c r="AP152" s="42">
+      <c r="AP152" s="39">
         <f t="shared" si="20"/>
         <v>1346.999999999626</v>
       </c>
-      <c r="AQ152" s="42">
+      <c r="AQ152" s="39">
         <f t="shared" si="16"/>
         <v>5.0000000004740741</v>
       </c>
@@ -16715,11 +16716,11 @@
       <c r="AO153" s="10">
         <v>0.76901248581100001</v>
       </c>
-      <c r="AP153" s="42">
+      <c r="AP153" s="39">
         <f t="shared" si="20"/>
         <v>1354.999999998982</v>
       </c>
-      <c r="AQ153" s="42">
+      <c r="AQ153" s="39">
         <f t="shared" si="16"/>
         <v>7.9999999993560778</v>
       </c>
@@ -16835,11 +16836,11 @@
       <c r="AO154" s="10">
         <v>0.77110481586400004</v>
       </c>
-      <c r="AP154" s="42">
+      <c r="AP154" s="39">
         <f t="shared" si="20"/>
         <v>1360.99999999996</v>
       </c>
-      <c r="AQ154" s="42">
+      <c r="AQ154" s="39">
         <f t="shared" si="16"/>
         <v>6.0000000009779342</v>
       </c>
@@ -16955,11 +16956,11 @@
       <c r="AO155" s="10">
         <v>0.77239436619699997</v>
       </c>
-      <c r="AP155" s="42">
+      <c r="AP155" s="39">
         <f t="shared" si="20"/>
         <v>1370.9999999996749</v>
       </c>
-      <c r="AQ155" s="42">
+      <c r="AQ155" s="39">
         <f t="shared" si="16"/>
         <v>9.9999999997148734</v>
       </c>
@@ -17075,11 +17076,11 @@
       <c r="AO156" s="10">
         <v>0.77417551704800003</v>
       </c>
-      <c r="AP156" s="42">
+      <c r="AP156" s="39">
         <f t="shared" si="20"/>
         <v>1384.999999998872</v>
       </c>
-      <c r="AQ156" s="42">
+      <c r="AQ156" s="39">
         <f t="shared" si="16"/>
         <v>13.999999999197144</v>
       </c>
@@ -17195,11 +17196,11 @@
       <c r="AO157" s="10">
         <v>0.77474972191299996</v>
       </c>
-      <c r="AP157" s="42">
+      <c r="AP157" s="39">
         <f t="shared" si="20"/>
         <v>1392.9999999995739</v>
       </c>
-      <c r="AQ157" s="42">
+      <c r="AQ157" s="39">
         <f t="shared" si="16"/>
         <v>8.0000000007019025</v>
       </c>
@@ -17315,11 +17316,11 @@
       <c r="AO158" s="10">
         <v>0.77913429522699995</v>
       </c>
-      <c r="AP158" s="42">
+      <c r="AP158" s="39">
         <f t="shared" si="20"/>
         <v>1403.9999999990539</v>
       </c>
-      <c r="AQ158" s="42">
+      <c r="AQ158" s="39">
         <f t="shared" si="16"/>
         <v>10.999999999479996</v>
       </c>
@@ -17439,11 +17440,11 @@
       <c r="AO159" s="10">
         <v>0.77863436123300001</v>
       </c>
-      <c r="AP159" s="42">
+      <c r="AP159" s="39">
         <f t="shared" si="20"/>
         <v>1413.999999999128</v>
       </c>
-      <c r="AQ159" s="42">
+      <c r="AQ159" s="39">
         <f t="shared" si="16"/>
         <v>10.000000000074124</v>
       </c>
@@ -17563,11 +17564,11 @@
       <c r="AO160" s="10">
         <v>0.78082191780800003</v>
       </c>
-      <c r="AP160" s="42">
+      <c r="AP160" s="39">
         <f t="shared" si="20"/>
         <v>1424.9999999996</v>
       </c>
-      <c r="AQ160" s="42">
+      <c r="AQ160" s="39">
         <f t="shared" si="16"/>
         <v>11.000000000472028</v>
       </c>
@@ -17695,11 +17696,11 @@
       <c r="AO161" s="10">
         <v>0.77801958650699998</v>
       </c>
-      <c r="AP161" s="42">
+      <c r="AP161" s="39">
         <f t="shared" si="20"/>
         <v>1429.9999999998661</v>
       </c>
-      <c r="AQ161" s="42">
+      <c r="AQ161" s="39">
         <f t="shared" si="16"/>
         <v>5.0000000002660272</v>
       </c>
@@ -17827,11 +17828,11 @@
       <c r="AO162" s="10">
         <v>0.77891891891800003</v>
       </c>
-      <c r="AP162" s="42">
+      <c r="AP162" s="39">
         <f t="shared" si="20"/>
         <v>1440.9999999983002</v>
       </c>
-      <c r="AQ162" s="42">
+      <c r="AQ162" s="39">
         <f t="shared" si="16"/>
         <v>10.999999998434077</v>
       </c>
@@ -17959,11 +17960,11 @@
       <c r="AO163" s="10">
         <v>0.78632938643700001</v>
       </c>
-      <c r="AP163" s="42">
+      <c r="AP163" s="39">
         <f t="shared" si="20"/>
         <v>1460.9999999999461</v>
       </c>
-      <c r="AQ163" s="42">
+      <c r="AQ163" s="39">
         <f t="shared" si="16"/>
         <v>20.000000001645958</v>
       </c>
@@ -18091,11 +18092,11 @@
       <c r="AO164" s="10">
         <v>0.78567610903200003</v>
       </c>
-      <c r="AP164" s="42">
+      <c r="AP164" s="39">
         <f t="shared" si="20"/>
         <v>1469.999999998872</v>
       </c>
-      <c r="AQ164" s="42">
+      <c r="AQ164" s="39">
         <f t="shared" si="16"/>
         <v>8.9999999989258868</v>
       </c>
@@ -18223,11 +18224,11 @@
       <c r="AO165" s="10">
         <v>0.78597981943700002</v>
       </c>
-      <c r="AP165" s="42">
+      <c r="AP165" s="39">
         <f t="shared" si="20"/>
         <v>1479.9999999998711</v>
       </c>
-      <c r="AQ165" s="42">
+      <c r="AQ165" s="39">
         <f t="shared" si="16"/>
         <v>10.00000000099908</v>
       </c>
@@ -18355,11 +18356,11 @@
       <c r="AO166" s="10">
         <v>0.78864353312299995</v>
       </c>
-      <c r="AP166" s="42">
+      <c r="AP166" s="39">
         <f t="shared" si="20"/>
         <v>1499.9999999999459</v>
       </c>
-      <c r="AQ166" s="42">
+      <c r="AQ166" s="39">
         <f t="shared" si="16"/>
         <v>20.000000000074806</v>
       </c>
@@ -18487,11 +18488,11 @@
       <c r="AO167" s="10">
         <v>0.78944618599700001</v>
       </c>
-      <c r="AP167" s="42">
+      <c r="AP167" s="39">
         <f t="shared" si="20"/>
         <v>1510.9999999982581</v>
       </c>
-      <c r="AQ167" s="42">
+      <c r="AQ167" s="39">
         <f t="shared" si="16"/>
         <v>10.999999998312205</v>
       </c>
@@ -18619,11 +18620,11 @@
       <c r="AO168" s="10">
         <v>0.78597402597400001</v>
       </c>
-      <c r="AP168" s="42">
+      <c r="AP168" s="39">
         <f t="shared" si="20"/>
         <v>1512.99999999995</v>
       </c>
-      <c r="AQ168" s="42">
+      <c r="AQ168" s="39">
         <f t="shared" si="16"/>
         <v>2.0000000016918875</v>
       </c>
@@ -18752,11 +18753,11 @@
       <c r="AO169" s="10">
         <v>0.78619268418300003</v>
       </c>
-      <c r="AP169" s="42">
+      <c r="AP169" s="39">
         <f t="shared" si="20"/>
         <v>1525.9999999992031</v>
       </c>
-      <c r="AQ169" s="42">
+      <c r="AQ169" s="39">
         <f t="shared" si="16"/>
         <v>12.999999999253077</v>
       </c>
@@ -18884,11 +18885,11 @@
       <c r="AO170" s="10">
         <v>0.78890600924400001</v>
       </c>
-      <c r="AP170" s="42">
+      <c r="AP170" s="39">
         <f t="shared" si="20"/>
         <v>1535.999999998068</v>
       </c>
-      <c r="AQ170" s="42">
+      <c r="AQ170" s="39">
         <f t="shared" si="16"/>
         <v>9.9999999988649506</v>
       </c>
@@ -19016,11 +19017,11 @@
       <c r="AO171" s="10">
         <v>0.78888322284500001</v>
       </c>
-      <c r="AP171" s="42">
+      <c r="AP171" s="39">
         <f t="shared" si="20"/>
         <v>1546.999999999045</v>
       </c>
-      <c r="AQ171" s="42">
+      <c r="AQ171" s="39">
         <f t="shared" si="16"/>
         <v>11.000000000977025</v>
       </c>
@@ -19148,11 +19149,11 @@
       <c r="AO172" s="10">
         <v>0.787191124558</v>
       </c>
-      <c r="AP172" s="42">
+      <c r="AP172" s="39">
         <f t="shared" si="20"/>
         <v>1560.9999999985139</v>
       </c>
-      <c r="AQ172" s="42">
+      <c r="AQ172" s="39">
         <f t="shared" si="16"/>
         <v>13.999999999468855</v>
       </c>
@@ -19280,11 +19281,11 @@
       <c r="AO173" s="10">
         <v>0.783042394014</v>
       </c>
-      <c r="AP173" s="42">
+      <c r="AP173" s="39">
         <f t="shared" si="20"/>
         <v>1569.9999999980701</v>
       </c>
-      <c r="AQ173" s="42">
+      <c r="AQ173" s="39">
         <f t="shared" si="16"/>
         <v>8.9999999995561666</v>
       </c>
@@ -19412,11 +19413,11 @@
       <c r="AO174" s="10">
         <v>0.78008915304600002</v>
       </c>
-      <c r="AP174" s="42">
+      <c r="AP174" s="39">
         <f t="shared" si="20"/>
         <v>1574.999999999874</v>
       </c>
-      <c r="AQ174" s="42">
+      <c r="AQ174" s="39">
         <f t="shared" si="16"/>
         <v>5.0000000018039827</v>
       </c>
@@ -19544,11 +19545,11 @@
       <c r="AO175" s="10">
         <v>0.78018728437600005</v>
       </c>
-      <c r="AP175" s="42">
+      <c r="AP175" s="39">
         <f t="shared" si="20"/>
         <v>1582.9999999989041</v>
       </c>
-      <c r="AQ175" s="42">
+      <c r="AQ175" s="39">
         <f t="shared" si="16"/>
         <v>7.9999999990300239</v>
       </c>
@@ -19676,11 +19677,11 @@
       <c r="AO176" s="10">
         <v>0.78213935230599996</v>
       </c>
-      <c r="AP176" s="42">
+      <c r="AP176" s="39">
         <f t="shared" si="20"/>
         <v>1593.999999999628</v>
       </c>
-      <c r="AQ176" s="42">
+      <c r="AQ176" s="39">
         <f t="shared" si="16"/>
         <v>11.000000000723958</v>
       </c>
@@ -19808,11 +19809,11 @@
       <c r="AO177" s="10">
         <v>0.78091528724399994</v>
       </c>
-      <c r="AP177" s="42">
+      <c r="AP177" s="39">
         <f t="shared" si="20"/>
         <v>1603.999999999176</v>
       </c>
-      <c r="AQ177" s="42">
+      <c r="AQ177" s="39">
         <f t="shared" si="16"/>
         <v>9.9999999995479811</v>
       </c>
@@ -19940,11 +19941,11 @@
       <c r="AO178" s="10">
         <v>0.78105364910499997</v>
       </c>
-      <c r="AP178" s="42">
+      <c r="AP178" s="39">
         <f t="shared" si="20"/>
         <v>1615.9999999982449</v>
       </c>
-      <c r="AQ178" s="42">
+      <c r="AQ178" s="39">
         <f t="shared" si="16"/>
         <v>11.999999999068905</v>
       </c>
@@ -20072,11 +20073,11 @@
       <c r="AO179" s="10">
         <v>0.77942583732000004</v>
       </c>
-      <c r="AP179" s="42">
+      <c r="AP179" s="39">
         <f t="shared" si="20"/>
         <v>1628.9999999988001</v>
       </c>
-      <c r="AQ179" s="42">
+      <c r="AQ179" s="39">
         <f t="shared" si="16"/>
         <v>13.000000000555247</v>
       </c>
@@ -20204,11 +20205,11 @@
       <c r="AO180" s="10">
         <v>0.77793560606000001</v>
       </c>
-      <c r="AP180" s="42">
+      <c r="AP180" s="39">
         <f t="shared" si="20"/>
         <v>1642.9999999987201</v>
       </c>
-      <c r="AQ180" s="42">
+      <c r="AQ180" s="39">
         <f t="shared" si="16"/>
         <v>13.999999999919964</v>
       </c>
@@ -20336,11 +20337,11 @@
       <c r="AO181" s="10">
         <v>0.77798682972699995</v>
       </c>
-      <c r="AP181" s="42">
+      <c r="AP181" s="39">
         <f t="shared" si="20"/>
         <v>1653.9999999996019</v>
       </c>
-      <c r="AQ181" s="42">
+      <c r="AQ181" s="39">
         <f t="shared" si="16"/>
         <v>11.000000000881755</v>
       </c>
@@ -20468,11 +20469,11 @@
       <c r="AO182" s="10">
         <v>0.77440448388600003</v>
       </c>
-      <c r="AP182" s="42">
+      <c r="AP182" s="39">
         <f t="shared" si="20"/>
         <v>1657.9999999999261</v>
       </c>
-      <c r="AQ182" s="42">
+      <c r="AQ182" s="39">
         <f t="shared" si="16"/>
         <v>4.0000000003242349</v>
       </c>
@@ -20600,11 +20601,11 @@
       <c r="AO183" s="10">
         <v>0.77207582061900004</v>
       </c>
-      <c r="AP183" s="42">
+      <c r="AP183" s="39">
         <f t="shared" si="20"/>
         <v>1669.999999998897</v>
       </c>
-      <c r="AQ183" s="42">
+      <c r="AQ183" s="39">
         <f t="shared" si="16"/>
         <v>11.999999998970907</v>
       </c>
@@ -20761,11 +20762,11 @@
       <c r="AO184" s="10">
         <v>0.771415483279</v>
       </c>
-      <c r="AP184" s="42">
+      <c r="AP184" s="39">
         <f t="shared" si="20"/>
         <v>1683.9999999980571</v>
       </c>
-      <c r="AQ184" s="42">
+      <c r="AQ184" s="39">
         <f t="shared" si="16"/>
         <v>13.999999999160082</v>
       </c>
@@ -20922,11 +20923,11 @@
       <c r="AO185" s="10">
         <v>0.77293369663900002</v>
       </c>
-      <c r="AP185" s="42">
+      <c r="AP185" s="39">
         <f t="shared" si="20"/>
         <v>1701.999999999078</v>
       </c>
-      <c r="AQ185" s="42">
+      <c r="AQ185" s="39">
         <f t="shared" si="16"/>
         <v>18.000000001020908</v>
       </c>
@@ -21083,11 +21084,11 @@
       <c r="AO186" s="10">
         <v>0.76943699731899995</v>
       </c>
-      <c r="AP186" s="42">
+      <c r="AP186" s="39">
         <f t="shared" si="20"/>
         <v>1721.9999999999218</v>
       </c>
-      <c r="AQ186" s="42">
+      <c r="AQ186" s="39">
         <f t="shared" si="16"/>
         <v>20.000000000843784</v>
       </c>
@@ -21244,11 +21245,11 @@
       <c r="AO187" s="10">
         <v>0.77065841802900004</v>
       </c>
-      <c r="AP187" s="42">
+      <c r="AP187" s="39">
         <f t="shared" si="20"/>
         <v>1743.9999999996271</v>
       </c>
-      <c r="AQ187" s="42">
+      <c r="AQ187" s="39">
         <f t="shared" si="16"/>
         <v>21.999999999705324</v>
       </c>
@@ -21405,11 +21406,11 @@
       <c r="AO188" s="10">
         <v>0.76219512195100003</v>
       </c>
-      <c r="AP188" s="42">
+      <c r="AP188" s="39">
         <f t="shared" si="20"/>
         <v>1749.9999999994961</v>
       </c>
-      <c r="AQ188" s="42">
+      <c r="AQ188" s="39">
         <f t="shared" si="16"/>
         <v>5.9999999998690328</v>
       </c>
@@ -21566,11 +21567,11 @@
       <c r="AO189" s="10">
         <v>0.75863557858300001</v>
       </c>
-      <c r="AP189" s="42">
+      <c r="AP189" s="39">
         <f t="shared" si="20"/>
         <v>1756.9999999982281</v>
       </c>
-      <c r="AQ189" s="42">
+      <c r="AQ189" s="39">
         <f t="shared" si="16"/>
         <v>6.999999998731937</v>
       </c>
@@ -21728,11 +21729,11 @@
       <c r="AO190" s="10">
         <v>0.75603557814400002</v>
       </c>
-      <c r="AP190" s="42">
+      <c r="AP190" s="39">
         <f t="shared" si="20"/>
         <v>1784.9999999979841</v>
       </c>
-      <c r="AQ190" s="42">
+      <c r="AQ190" s="39">
         <f t="shared" si="16"/>
         <v>27.999999999756028</v>
       </c>
@@ -21892,11 +21893,11 @@
       <c r="AO191" s="10">
         <v>0.75963149078699999</v>
       </c>
-      <c r="AP191" s="42">
+      <c r="AP191" s="39">
         <f t="shared" si="20"/>
         <v>1813.9999999993561</v>
       </c>
-      <c r="AQ191" s="42">
+      <c r="AQ191" s="39">
         <f t="shared" si="16"/>
         <v>29.000000001371973</v>
       </c>
@@ -22056,11 +22057,11 @@
       <c r="AO192" s="10">
         <v>0.75482546201199996</v>
       </c>
-      <c r="AP192" s="42">
+      <c r="AP192" s="39">
         <f t="shared" si="20"/>
         <v>1837.9999999992199</v>
       </c>
-      <c r="AQ192" s="42">
+      <c r="AQ192" s="39">
         <f t="shared" si="16"/>
         <v>23.999999999863803</v>
       </c>
@@ -22087,7 +22088,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>44084</v>
       </c>
@@ -22220,11 +22221,11 @@
       <c r="AO193" s="10">
         <v>0.75141700404800005</v>
       </c>
-      <c r="AP193" s="42">
+      <c r="AP193" s="39">
         <f t="shared" si="20"/>
         <v>1855.99999999856</v>
       </c>
-      <c r="AQ193" s="42">
+      <c r="AQ193" s="39">
         <f t="shared" si="16"/>
         <v>17.999999999340162</v>
       </c>
@@ -22251,7 +22252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>44085</v>
       </c>
@@ -22384,11 +22385,11 @@
       <c r="AO194" s="10">
         <v>0.75485148514800005</v>
       </c>
-      <c r="AP194" s="42">
+      <c r="AP194" s="39">
         <f t="shared" si="20"/>
         <v>1905.9999999987001</v>
       </c>
-      <c r="AQ194" s="42">
+      <c r="AQ194" s="39">
         <f t="shared" si="16"/>
         <v>50.000000000140062</v>
       </c>
@@ -22415,7 +22416,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>44086</v>
       </c>
@@ -22548,11 +22549,11 @@
       <c r="AO195" s="10">
         <v>0.75283535393000001</v>
       </c>
-      <c r="AP195" s="42">
+      <c r="AP195" s="39">
         <f t="shared" si="20"/>
         <v>1924.99999999901</v>
       </c>
-      <c r="AQ195" s="42">
+      <c r="AQ195" s="39">
         <f t="shared" si="16"/>
         <v>19.00000000030991</v>
       </c>
@@ -22579,7 +22580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>44087</v>
       </c>
@@ -22712,11 +22713,11 @@
       <c r="AO196" s="10">
         <v>0.74529389166299997</v>
       </c>
-      <c r="AP196" s="42">
+      <c r="AP196" s="39">
         <f t="shared" si="20"/>
         <v>1939.999999998789</v>
       </c>
-      <c r="AQ196" s="42">
+      <c r="AQ196" s="39">
         <f t="shared" si="16"/>
         <v>14.999999999778993</v>
       </c>
@@ -22744,7 +22745,7 @@
         <v>9.9600158299074634E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>44088</v>
       </c>
@@ -22877,11 +22878,11 @@
       <c r="AO197" s="10">
         <v>0.746892655367</v>
       </c>
-      <c r="AP197" s="42">
+      <c r="AP197" s="39">
         <f t="shared" si="20"/>
         <v>1982.999999999385</v>
       </c>
-      <c r="AQ197" s="42">
+      <c r="AQ197" s="39">
         <f t="shared" si="16"/>
         <v>43.000000000595946</v>
       </c>
@@ -22909,7 +22910,7 @@
         <v>0.10117029234509294</v>
       </c>
     </row>
-    <row r="198" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>44089</v>
       </c>
@@ -23042,11 +23043,11 @@
       <c r="AO198" s="10">
         <v>0.73975109809600004</v>
       </c>
-      <c r="AP198" s="42">
+      <c r="AP198" s="39">
         <f t="shared" si="20"/>
         <v>2020.9999999982722</v>
       </c>
-      <c r="AQ198" s="42">
+      <c r="AQ198" s="39">
         <f t="shared" si="16"/>
         <v>37.999999998887233</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>0.10072224627884031</v>
       </c>
     </row>
-    <row r="199" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>44090</v>
       </c>
@@ -23207,11 +23208,11 @@
       <c r="AO199" s="10">
         <v>0.73262032085499995</v>
       </c>
-      <c r="AP199" s="42">
+      <c r="AP199" s="39">
         <f t="shared" si="20"/>
         <v>2054.9999999982747</v>
       </c>
-      <c r="AQ199" s="42">
+      <c r="AQ199" s="39">
         <f t="shared" si="16"/>
         <v>34.000000000002501</v>
       </c>
@@ -23238,8 +23239,12 @@
         <f t="shared" si="35"/>
         <v>0.10021094655494218</v>
       </c>
+      <c r="AX199" s="38">
+        <f t="shared" ref="AX199:AX236" si="36">AU199/AM199</f>
+        <v>8.5365853658536592E-2</v>
+      </c>
     </row>
-    <row r="200" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>44091</v>
       </c>
@@ -23331,7 +23336,7 @@
         <v>17</v>
       </c>
       <c r="AC200" s="31">
-        <f t="shared" ref="AC200:AC206" si="36">AB200/(X199)</f>
+        <f t="shared" ref="AC200:AC206" si="37">AB200/(X199)</f>
         <v>0.12408759124087591</v>
       </c>
       <c r="AD200" s="25">
@@ -23372,11 +23377,11 @@
       <c r="AO200" s="10">
         <v>0.71545268890400004</v>
       </c>
-      <c r="AP200" s="42">
+      <c r="AP200" s="39">
         <f t="shared" si="20"/>
         <v>2101.9999999999523</v>
       </c>
-      <c r="AQ200" s="42">
+      <c r="AQ200" s="39">
         <f t="shared" si="16"/>
         <v>47.000000001677563</v>
       </c>
@@ -23403,8 +23408,12 @@
         <f t="shared" si="35"/>
         <v>0.10719454707088101</v>
       </c>
+      <c r="AX200" s="38">
+        <f t="shared" si="36"/>
+        <v>5.434782608695652E-2</v>
+      </c>
     </row>
-    <row r="201" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>44092</v>
       </c>
@@ -23423,7 +23432,7 @@
         <v>85</v>
       </c>
       <c r="G201" s="31">
-        <f t="shared" ref="G201:G236" si="37">F201/P201</f>
+        <f t="shared" ref="G201:G236" si="38">F201/P201</f>
         <v>0.16159695817490494</v>
       </c>
       <c r="H201" s="10">
@@ -23496,7 +23505,7 @@
         <v>19</v>
       </c>
       <c r="AC201" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11176470588235295</v>
       </c>
       <c r="AD201" s="25">
@@ -23537,11 +23546,11 @@
       <c r="AO201" s="10">
         <v>0.72047634799799998</v>
       </c>
-      <c r="AP201" s="42">
+      <c r="AP201" s="39">
         <f t="shared" si="20"/>
         <v>2177.9999999979541</v>
       </c>
-      <c r="AQ201" s="42">
+      <c r="AQ201" s="39">
         <f t="shared" si="16"/>
         <v>75.99999999800184</v>
       </c>
@@ -23568,8 +23577,12 @@
         <f t="shared" si="35"/>
         <v>0.10306587895830947</v>
       </c>
+      <c r="AX201" s="38">
+        <f t="shared" si="36"/>
+        <v>0.1134020618556701</v>
+      </c>
     </row>
-    <row r="202" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>44093</v>
       </c>
@@ -23588,7 +23601,7 @@
         <v>74</v>
       </c>
       <c r="G202" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14509803921568629</v>
       </c>
       <c r="H202" s="10">
@@ -23661,7 +23674,7 @@
         <v>16</v>
       </c>
       <c r="AC202" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.247422680412371E-2</v>
       </c>
       <c r="AD202" s="25">
@@ -23702,11 +23715,11 @@
       <c r="AO202" s="10">
         <v>0.713270907329</v>
       </c>
-      <c r="AP202" s="42">
+      <c r="AP202" s="39">
         <f t="shared" si="20"/>
         <v>2208.9999999979132</v>
       </c>
-      <c r="AQ202" s="42">
+      <c r="AQ202" s="39">
         <f t="shared" si="16"/>
         <v>30.999999999959073</v>
       </c>
@@ -23733,8 +23746,12 @@
         <f t="shared" si="35"/>
         <v>0.10275760947663884</v>
       </c>
+      <c r="AX202" s="38">
+        <f t="shared" si="36"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
     </row>
-    <row r="203" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>44094</v>
       </c>
@@ -23753,7 +23770,7 @@
         <v>58</v>
       </c>
       <c r="G203" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.10881801125703565</v>
       </c>
       <c r="H203" s="10">
@@ -23826,7 +23843,7 @@
         <v>20</v>
       </c>
       <c r="AC203" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.1</v>
       </c>
       <c r="AD203" s="25">
@@ -23867,12 +23884,12 @@
       <c r="AO203" s="10">
         <v>0.70618066561000004</v>
       </c>
-      <c r="AP203" s="42">
+      <c r="AP203" s="39">
         <f t="shared" si="20"/>
         <v>2227.9999999995503</v>
       </c>
-      <c r="AQ203" s="42">
-        <f t="shared" ref="AQ203:AQ236" si="38">AP203-AP202</f>
+      <c r="AQ203" s="39">
+        <f t="shared" ref="AQ203:AQ236" si="39">AP203-AP202</f>
         <v>19.00000000163709</v>
       </c>
       <c r="AR203" s="10">
@@ -23883,7 +23900,7 @@
         <v>412</v>
       </c>
       <c r="AT203" s="32">
-        <f t="shared" ref="AT203:AT236" si="39">AS203/E203</f>
+        <f t="shared" ref="AT203:AT236" si="40">AS203/E203</f>
         <v>0.1305863708399366</v>
       </c>
       <c r="AU203" s="17">
@@ -23891,15 +23908,19 @@
         <v>5</v>
       </c>
       <c r="AV203" s="32">
-        <f t="shared" ref="AV203:AV236" si="40">AU203/P202</f>
+        <f t="shared" ref="AV203:AV236" si="41">AU203/P202</f>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="AW203" s="36">
         <f t="shared" si="35"/>
         <v>0.10063926213770327</v>
       </c>
+      <c r="AX203" s="38">
+        <f t="shared" si="36"/>
+        <v>4.716981132075472E-2</v>
+      </c>
     </row>
-    <row r="204" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>44095</v>
       </c>
@@ -23918,7 +23939,7 @@
         <v>106</v>
       </c>
       <c r="G204" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.17179902755267423</v>
       </c>
       <c r="H204" s="10">
@@ -23992,7 +24013,7 @@
         <v>22</v>
       </c>
       <c r="AC204" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.10784313725490197</v>
       </c>
       <c r="AD204" s="25">
@@ -24033,12 +24054,12 @@
       <c r="AO204" s="10">
         <v>0.70377184912599999</v>
       </c>
-      <c r="AP204" s="42">
+      <c r="AP204" s="39">
         <f t="shared" si="20"/>
         <v>2294.9999999998859</v>
       </c>
-      <c r="AQ204" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ204" s="39">
+        <f t="shared" si="39"/>
         <v>67.000000000335604</v>
       </c>
       <c r="AR204" s="10">
@@ -24049,7 +24070,7 @@
         <v>426</v>
       </c>
       <c r="AT204" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.13063477460901565</v>
       </c>
       <c r="AU204" s="17">
@@ -24057,15 +24078,19 @@
         <v>14</v>
       </c>
       <c r="AV204" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.6266416510318951E-2</v>
       </c>
       <c r="AW204" s="36">
         <f t="shared" si="35"/>
         <v>9.8844962013860366E-2</v>
       </c>
+      <c r="AX204" s="38">
+        <f t="shared" si="36"/>
+        <v>0.12389380530973451</v>
+      </c>
     </row>
-    <row r="205" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>44096</v>
       </c>
@@ -24084,7 +24109,7 @@
         <v>102</v>
       </c>
       <c r="G205" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.15987460815047022</v>
       </c>
       <c r="H205" s="10">
@@ -24157,7 +24182,7 @@
         <v>24</v>
       </c>
       <c r="AC205" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.1038961038961039</v>
       </c>
       <c r="AD205" s="25">
@@ -24198,12 +24223,12 @@
       <c r="AO205" s="10">
         <v>0.69729408266399995</v>
       </c>
-      <c r="AP205" s="42">
+      <c r="AP205" s="39">
         <f t="shared" si="20"/>
         <v>2344.9999999990318</v>
       </c>
-      <c r="AQ205" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ205" s="39">
+        <f t="shared" si="39"/>
         <v>49.999999999145984</v>
       </c>
       <c r="AR205" s="10">
@@ -24214,7 +24239,7 @@
         <v>436</v>
       </c>
       <c r="AT205" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1296461492714838</v>
       </c>
       <c r="AU205" s="17">
@@ -24222,15 +24247,19 @@
         <v>10</v>
       </c>
       <c r="AV205" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.6207455429497569E-2</v>
       </c>
       <c r="AW205" s="36">
         <f t="shared" si="35"/>
         <v>9.4686726244039801E-2</v>
       </c>
+      <c r="AX205" s="38">
+        <f t="shared" si="36"/>
+        <v>8.1967213114754092E-2</v>
+      </c>
     </row>
-    <row r="206" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>44097</v>
       </c>
@@ -24249,7 +24278,7 @@
         <v>136</v>
       </c>
       <c r="G206" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.19074333800841514</v>
       </c>
       <c r="H206" s="10">
@@ -24322,7 +24351,7 @@
         <v>31</v>
       </c>
       <c r="AC206" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.13080168776371309</v>
       </c>
       <c r="AD206" s="25">
@@ -24363,12 +24392,12 @@
       <c r="AO206" s="10">
         <v>0.68933981137400002</v>
       </c>
-      <c r="AP206" s="42">
+      <c r="AP206" s="39">
         <f t="shared" si="20"/>
         <v>2411.9999999976262</v>
       </c>
-      <c r="AQ206" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ206" s="39">
+        <f t="shared" si="39"/>
         <v>66.999999998594376</v>
       </c>
       <c r="AR206" s="10">
@@ -24379,7 +24408,7 @@
         <v>455</v>
       </c>
       <c r="AT206" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1300371534724207</v>
       </c>
       <c r="AU206" s="17">
@@ -24387,15 +24416,19 @@
         <v>19</v>
       </c>
       <c r="AV206" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.9780564263322883E-2</v>
       </c>
       <c r="AW206" s="36">
         <f t="shared" si="35"/>
         <v>9.6701952397196991E-2</v>
       </c>
+      <c r="AX206" s="38">
+        <f t="shared" si="36"/>
+        <v>0.13380281690140844</v>
+      </c>
     </row>
-    <row r="207" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>44098</v>
       </c>
@@ -24414,7 +24447,7 @@
         <v>143</v>
       </c>
       <c r="G207" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18595578673602081</v>
       </c>
       <c r="H207" s="10">
@@ -24487,7 +24520,7 @@
         <v>40</v>
       </c>
       <c r="AC207" s="31">
-        <f t="shared" ref="AC207:AC236" si="41">AB207/(X206)</f>
+        <f t="shared" ref="AC207:AC236" si="42">AB207/(X206)</f>
         <v>0.15267175572519084</v>
       </c>
       <c r="AD207" s="25">
@@ -24528,12 +24561,12 @@
       <c r="AO207" s="10">
         <v>0.67957166392000001</v>
       </c>
-      <c r="AP207" s="42">
+      <c r="AP207" s="39">
         <f t="shared" si="20"/>
         <v>2474.9999999966399</v>
       </c>
-      <c r="AQ207" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ207" s="39">
+        <f t="shared" si="39"/>
         <v>62.999999999013653</v>
       </c>
       <c r="AR207" s="10">
@@ -24544,7 +24577,7 @@
         <v>463</v>
       </c>
       <c r="AT207" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1271279516749039</v>
       </c>
       <c r="AU207" s="17">
@@ -24552,15 +24585,19 @@
         <v>8</v>
       </c>
       <c r="AV207" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1220196353436185E-2</v>
       </c>
       <c r="AW207" s="36">
         <f t="shared" si="35"/>
         <v>9.274619004966278E-2</v>
       </c>
+      <c r="AX207" s="38">
+        <f t="shared" si="36"/>
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="208" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>44099</v>
       </c>
@@ -24579,7 +24616,7 @@
         <v>137</v>
       </c>
       <c r="G208" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16525934861278649</v>
       </c>
       <c r="H208" s="10">
@@ -24652,7 +24689,7 @@
         <v>31</v>
       </c>
       <c r="AC208" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.10801393728222997</v>
       </c>
       <c r="AD208" s="25">
@@ -24693,12 +24730,12 @@
       <c r="AO208" s="10">
         <v>0.68351415718399999</v>
       </c>
-      <c r="AP208" s="42">
+      <c r="AP208" s="39">
         <f t="shared" si="20"/>
         <v>2582.9999999983361</v>
       </c>
-      <c r="AQ208" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ208" s="39">
+        <f t="shared" si="39"/>
         <v>108.00000000169621</v>
       </c>
       <c r="AR208" s="10">
@@ -24709,23 +24746,27 @@
         <v>471</v>
       </c>
       <c r="AT208" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12463614712887007</v>
       </c>
       <c r="AU208" s="17">
-        <f t="shared" ref="AU208:AU236" si="42">AS208-AS207</f>
+        <f t="shared" ref="AU208:AU236" si="43">AS208-AS207</f>
         <v>8</v>
       </c>
       <c r="AV208" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0403120936280884E-2</v>
       </c>
       <c r="AW208" s="36">
         <f t="shared" si="35"/>
         <v>9.0963993993892905E-2</v>
       </c>
+      <c r="AX208" s="38">
+        <f t="shared" si="36"/>
+        <v>4.6783625730994149E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>44100</v>
       </c>
@@ -24744,7 +24785,7 @@
         <v>106</v>
       </c>
       <c r="G209" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13151364764267989</v>
       </c>
       <c r="H209" s="10">
@@ -24817,7 +24858,7 @@
         <v>42</v>
       </c>
       <c r="AC209" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.13291139240506328</v>
       </c>
       <c r="AD209" s="25">
@@ -24858,12 +24899,12 @@
       <c r="AO209" s="10">
         <v>0.68314028313999997</v>
       </c>
-      <c r="AP209" s="42">
+      <c r="AP209" s="39">
         <f t="shared" si="20"/>
         <v>2653.9999999989</v>
       </c>
-      <c r="AQ209" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ209" s="39">
+        <f t="shared" si="39"/>
         <v>71.000000000563887</v>
       </c>
       <c r="AR209" s="10">
@@ -24874,23 +24915,27 @@
         <v>485</v>
       </c>
       <c r="AT209" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12483912483912483</v>
       </c>
       <c r="AU209" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>14</v>
       </c>
       <c r="AV209" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.6887816646562123E-2</v>
       </c>
       <c r="AW209" s="36">
         <f t="shared" si="35"/>
         <v>9.4779707512991793E-2</v>
       </c>
+      <c r="AX209" s="38">
+        <f t="shared" si="36"/>
+        <v>7.3684210526315783E-2</v>
+      </c>
     </row>
-    <row r="210" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>44101</v>
       </c>
@@ -24909,7 +24954,7 @@
         <v>117</v>
       </c>
       <c r="G210" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14045618247298919</v>
       </c>
       <c r="H210" s="10">
@@ -24982,7 +25027,7 @@
         <v>24</v>
       </c>
       <c r="AC210" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.3394495412844041E-2</v>
       </c>
       <c r="AD210" s="25">
@@ -25023,12 +25068,12 @@
       <c r="AO210" s="10">
         <v>0.67766116941499999</v>
       </c>
-      <c r="AP210" s="42">
+      <c r="AP210" s="39">
         <f t="shared" si="20"/>
         <v>2711.9999999988299</v>
       </c>
-      <c r="AQ210" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ210" s="39">
+        <f t="shared" si="39"/>
         <v>57.999999999929969</v>
       </c>
       <c r="AR210" s="10">
@@ -25039,23 +25084,27 @@
         <v>500</v>
       </c>
       <c r="AT210" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12493753123438281</v>
       </c>
       <c r="AU210" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15</v>
       </c>
       <c r="AV210" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.8610421836228287E-2</v>
       </c>
       <c r="AW210" s="36">
         <f t="shared" si="35"/>
         <v>9.9737621199558216E-2</v>
       </c>
+      <c r="AX210" s="38">
+        <f t="shared" si="36"/>
+        <v>7.6142131979695438E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>44102</v>
       </c>
@@ -25074,7 +25123,7 @@
         <v>100</v>
       </c>
       <c r="G211" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.11614401858304298</v>
       </c>
       <c r="H211" s="10">
@@ -25147,7 +25196,7 @@
         <v>31</v>
       </c>
       <c r="AC211" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.2814371257485026E-2</v>
       </c>
       <c r="AD211" s="25">
@@ -25188,12 +25237,12 @@
       <c r="AO211" s="10">
         <v>0.66942954656200004</v>
       </c>
-      <c r="AP211" s="42">
+      <c r="AP211" s="39">
         <f t="shared" si="20"/>
         <v>2745.9999999973243</v>
       </c>
-      <c r="AQ211" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ211" s="39">
+        <f t="shared" si="39"/>
         <v>33.999999998494332</v>
       </c>
       <c r="AR211" s="10">
@@ -25204,23 +25253,27 @@
         <v>508</v>
       </c>
       <c r="AT211" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12384202827888835</v>
       </c>
       <c r="AU211" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>8</v>
       </c>
       <c r="AV211" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>9.6038415366146452E-3</v>
       </c>
       <c r="AW211" s="36">
         <f t="shared" si="35"/>
         <v>8.7610872885652127E-2</v>
       </c>
+      <c r="AX211" s="38">
+        <f t="shared" si="36"/>
+        <v>3.9408866995073892E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>44103</v>
       </c>
@@ -25239,7 +25292,7 @@
         <v>186</v>
       </c>
       <c r="G212" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18289085545722714</v>
       </c>
       <c r="H212" s="10">
@@ -25313,7 +25366,7 @@
         <v>32</v>
       </c>
       <c r="AC212" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.8461538461538461E-2</v>
       </c>
       <c r="AD212" s="25">
@@ -25354,12 +25407,12 @@
       <c r="AO212" s="10">
         <v>0.66441231343200002</v>
       </c>
-      <c r="AP212" s="42">
+      <c r="AP212" s="39">
         <f t="shared" si="20"/>
         <v>2848.9999999964161</v>
       </c>
-      <c r="AQ212" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ212" s="39">
+        <f t="shared" si="39"/>
         <v>102.99999999909187</v>
       </c>
       <c r="AR212" s="10">
@@ -25370,23 +25423,27 @@
         <v>526</v>
       </c>
       <c r="AT212" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.12266791044776119</v>
       </c>
       <c r="AU212" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AV212" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.0905923344947737E-2</v>
       </c>
       <c r="AW212" s="36">
         <f t="shared" si="35"/>
         <v>9.3123881741801612E-2</v>
       </c>
+      <c r="AX212" s="38">
+        <f t="shared" si="36"/>
+        <v>8.4905660377358486E-2</v>
+      </c>
     </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>44104</v>
       </c>
@@ -25405,7 +25462,7 @@
         <v>192</v>
       </c>
       <c r="G213" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.17728531855955679</v>
       </c>
       <c r="H213" s="10">
@@ -25478,7 +25535,7 @@
         <v>30</v>
       </c>
       <c r="AC213" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.792207792207792E-2</v>
       </c>
       <c r="AD213" s="25">
@@ -25519,12 +25576,12 @@
       <c r="AO213" s="10">
         <v>0.65468749999999998</v>
       </c>
-      <c r="AP213" s="42">
+      <c r="AP213" s="39">
         <f t="shared" si="20"/>
         <v>2933</v>
       </c>
-      <c r="AQ213" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ213" s="39">
+        <f t="shared" si="39"/>
         <v>84.000000003583864</v>
       </c>
       <c r="AR213" s="10">
@@ -25535,23 +25592,27 @@
         <v>535</v>
       </c>
       <c r="AT213" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11941964285714286</v>
       </c>
       <c r="AU213" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AV213" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.8495575221238937E-3</v>
       </c>
       <c r="AW213" s="36">
         <f t="shared" si="35"/>
         <v>8.9921052631129941E-2</v>
       </c>
+      <c r="AX213" s="38">
+        <f t="shared" si="36"/>
+        <v>4.5226130653266333E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>44105</v>
       </c>
@@ -25570,7 +25631,7 @@
         <v>197</v>
       </c>
       <c r="G214" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16610455311973019</v>
       </c>
       <c r="H214" s="10">
@@ -25643,7 +25704,7 @@
         <v>46</v>
       </c>
       <c r="AC214" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.10574712643678161</v>
       </c>
       <c r="AD214" s="25">
@@ -25684,12 +25745,12 @@
       <c r="AO214" s="10">
         <v>0.64913406029499998</v>
       </c>
-      <c r="AP214" s="42">
-        <f t="shared" ref="AP214:AP237" si="43">AO214*E214</f>
+      <c r="AP214" s="39">
+        <f t="shared" ref="AP214:AP237" si="44">AO214*E214</f>
         <v>3035.9999999997149</v>
       </c>
-      <c r="AQ214" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ214" s="39">
+        <f t="shared" si="39"/>
         <v>102.99999999971487</v>
       </c>
       <c r="AR214" s="10">
@@ -25700,23 +25761,27 @@
         <v>554</v>
       </c>
       <c r="AT214" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11845199914475091</v>
       </c>
       <c r="AU214" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>19</v>
       </c>
       <c r="AV214" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.7543859649122806E-2</v>
       </c>
       <c r="AW214" s="36">
         <f t="shared" si="35"/>
         <v>9.0884929807646939E-2</v>
       </c>
+      <c r="AX214" s="38">
+        <f t="shared" si="36"/>
+        <v>8.050847457627118E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>44106</v>
       </c>
@@ -25735,7 +25800,7 @@
         <v>211</v>
       </c>
       <c r="G215" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16601101494885917</v>
       </c>
       <c r="H215" s="10">
@@ -25808,7 +25873,7 @@
         <v>53</v>
       </c>
       <c r="AC215" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.11546840958605664</v>
       </c>
       <c r="AD215" s="25">
@@ -25849,12 +25914,12 @@
       <c r="AO215" s="10">
         <v>0.64873158756100002</v>
       </c>
-      <c r="AP215" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP215" s="39">
+        <f t="shared" si="44"/>
         <v>3170.9999999981683</v>
       </c>
-      <c r="AQ215" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ215" s="39">
+        <f t="shared" si="39"/>
         <v>134.9999999984534</v>
       </c>
       <c r="AR215" s="10">
@@ -25865,23 +25930,27 @@
         <v>572</v>
       </c>
       <c r="AT215" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11702127659574468</v>
       </c>
       <c r="AU215" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AV215" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.5177065767284991E-2</v>
       </c>
       <c r="AW215" s="36">
         <f t="shared" si="35"/>
         <v>8.7082909895482022E-2</v>
       </c>
+      <c r="AX215" s="38">
+        <f t="shared" si="36"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
     </row>
-    <row r="216" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>44107</v>
       </c>
@@ -25900,7 +25969,7 @@
         <v>148</v>
       </c>
       <c r="G216" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.11858974358974358</v>
       </c>
       <c r="H216" s="10">
@@ -25945,7 +26014,7 @@
         <v>44</v>
       </c>
       <c r="U216" s="31">
-        <f t="shared" ref="U216:U237" si="44">T216/P216</f>
+        <f t="shared" ref="U216:U237" si="45">T216/P216</f>
         <v>3.5256410256410256E-2</v>
       </c>
       <c r="V216" s="25">
@@ -25973,7 +26042,7 @@
         <v>58</v>
       </c>
       <c r="AC216" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.11485148514851486</v>
       </c>
       <c r="AD216" s="25">
@@ -26014,12 +26083,12 @@
       <c r="AO216" s="10">
         <v>0.64356632247800005</v>
       </c>
-      <c r="AP216" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP216" s="39">
+        <f t="shared" si="44"/>
         <v>3240.9999999992083</v>
       </c>
-      <c r="AQ216" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ216" s="39">
+        <f t="shared" si="39"/>
         <v>70.000000001040007</v>
       </c>
       <c r="AR216" s="10">
@@ -26030,23 +26099,27 @@
         <v>583</v>
       </c>
       <c r="AT216" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11576648133439238</v>
       </c>
       <c r="AU216" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="AV216" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.6546026750590095E-3</v>
       </c>
       <c r="AW216" s="36">
         <f t="shared" si="35"/>
         <v>8.2715679673397421E-2</v>
       </c>
+      <c r="AX216" s="38">
+        <f t="shared" si="36"/>
+        <v>4.0441176470588237E-2</v>
+      </c>
     </row>
-    <row r="217" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>44108</v>
       </c>
@@ -26065,7 +26138,7 @@
         <v>164</v>
       </c>
       <c r="G217" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12321562734785875</v>
       </c>
       <c r="H217" s="10">
@@ -26079,7 +26152,7 @@
         <v>31045.000000164437</v>
       </c>
       <c r="K217" s="10">
-        <f t="shared" ref="K217:K227" si="45">F217/D217</f>
+        <f t="shared" ref="K217:K227" si="46">F217/D217</f>
         <v>8.9130434782608695E-2</v>
       </c>
       <c r="L217" s="10">
@@ -26110,7 +26183,7 @@
         <v>50</v>
       </c>
       <c r="U217" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3.7565740045078885E-2</v>
       </c>
       <c r="V217" s="25">
@@ -26138,7 +26211,7 @@
         <v>39</v>
       </c>
       <c r="AC217" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.8E-2</v>
       </c>
       <c r="AD217" s="25">
@@ -26179,12 +26252,12 @@
       <c r="AO217" s="10">
         <v>0.63365384615300002</v>
       </c>
-      <c r="AP217" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP217" s="39">
+        <f t="shared" si="44"/>
         <v>3294.9999999956003</v>
       </c>
-      <c r="AQ217" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ217" s="39">
+        <f t="shared" si="39"/>
         <v>53.999999996392035</v>
       </c>
       <c r="AR217" s="10">
@@ -26195,23 +26268,27 @@
         <v>608</v>
       </c>
       <c r="AT217" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11692307692307692</v>
       </c>
       <c r="AU217" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>25</v>
       </c>
       <c r="AV217" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.0032051282051284E-2</v>
       </c>
       <c r="AW217" s="36">
         <f t="shared" si="35"/>
         <v>7.8616955816609033E-2</v>
       </c>
+      <c r="AX217" s="38">
+        <f t="shared" si="36"/>
+        <v>8.9605734767025089E-2</v>
+      </c>
     </row>
-    <row r="218" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>44109</v>
       </c>
@@ -26230,7 +26307,7 @@
         <v>294</v>
       </c>
       <c r="G218" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.19078520441271901</v>
       </c>
       <c r="H218" s="10">
@@ -26244,7 +26321,7 @@
         <v>31728.000000361382</v>
       </c>
       <c r="K218" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9.4291212315586917E-2</v>
       </c>
       <c r="L218" s="10">
@@ -26276,7 +26353,7 @@
         <v>90</v>
       </c>
       <c r="U218" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5.8403634003893576E-2</v>
       </c>
       <c r="V218" s="25">
@@ -26304,7 +26381,7 @@
         <v>77</v>
       </c>
       <c r="AC218" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.13628318584070798</v>
       </c>
       <c r="AD218" s="25">
@@ -26345,12 +26422,12 @@
       <c r="AO218" s="10">
         <v>0.62304331998499995</v>
       </c>
-      <c r="AP218" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP218" s="39">
+        <f t="shared" si="44"/>
         <v>3422.9999999975898</v>
       </c>
-      <c r="AQ218" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ218" s="39">
+        <f t="shared" si="39"/>
         <v>128.00000000198952</v>
       </c>
       <c r="AR218" s="10">
@@ -26361,23 +26438,27 @@
         <v>631</v>
       </c>
       <c r="AT218" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11485256643611212</v>
       </c>
       <c r="AU218" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>23</v>
       </c>
       <c r="AV218" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.7280240420736288E-2</v>
       </c>
       <c r="AW218" s="36">
         <f t="shared" si="35"/>
         <v>8.6524379814436156E-2</v>
       </c>
+      <c r="AX218" s="38">
+        <f t="shared" si="36"/>
+        <v>6.9069069069069067E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>44110</v>
       </c>
@@ -26396,7 +26477,7 @@
         <v>293</v>
       </c>
       <c r="G219" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.17337278106508874</v>
       </c>
       <c r="H219" s="10">
@@ -26410,7 +26491,7 @@
         <v>34523.000000266504</v>
       </c>
       <c r="K219" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6.5695067264573997E-2</v>
       </c>
       <c r="L219" s="10">
@@ -26441,7 +26522,7 @@
         <v>113</v>
       </c>
       <c r="U219" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6.6863905325443784E-2</v>
       </c>
       <c r="V219" s="17">
@@ -26469,7 +26550,7 @@
         <v>71</v>
       </c>
       <c r="AC219" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.11181102362204724</v>
       </c>
       <c r="AD219" s="17">
@@ -26510,12 +26591,12 @@
       <c r="AO219" s="10">
         <v>0.61741835147699997</v>
       </c>
-      <c r="AP219" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP219" s="39">
+        <f t="shared" si="44"/>
         <v>3572.9999999973988</v>
       </c>
-      <c r="AQ219" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ219" s="39">
+        <f t="shared" si="39"/>
         <v>149.99999999980901</v>
       </c>
       <c r="AR219" s="10">
@@ -26526,23 +26607,27 @@
         <v>657</v>
       </c>
       <c r="AT219" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11353032659409021</v>
       </c>
       <c r="AU219" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>26</v>
       </c>
       <c r="AV219" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.6872160934458143E-2</v>
       </c>
       <c r="AW219" s="36">
         <f t="shared" si="35"/>
         <v>8.3340244223858301E-2</v>
       </c>
+      <c r="AX219" s="38">
+        <f t="shared" si="36"/>
+        <v>7.3863636363636367E-2</v>
+      </c>
     </row>
-    <row r="220" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>44111</v>
       </c>
@@ -26561,7 +26646,7 @@
         <v>324</v>
       </c>
       <c r="G220" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.176278563656148</v>
       </c>
       <c r="H220" s="10">
@@ -26575,7 +26660,7 @@
         <v>38646.000000503023</v>
       </c>
       <c r="K220" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6.0696890221056572E-2</v>
       </c>
       <c r="L220" s="10">
@@ -26606,7 +26691,7 @@
         <v>157</v>
       </c>
       <c r="U220" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.5418933623503807E-2</v>
       </c>
       <c r="V220" s="17">
@@ -26634,7 +26719,7 @@
         <v>82</v>
       </c>
       <c r="AC220" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.12005856515373353</v>
       </c>
       <c r="AD220" s="17">
@@ -26675,12 +26760,12 @@
       <c r="AO220" s="10">
         <v>0.60873834069699995</v>
       </c>
-      <c r="AP220" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP220" s="39">
+        <f t="shared" si="44"/>
         <v>3719.9999999993665</v>
       </c>
-      <c r="AQ220" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ220" s="39">
+        <f t="shared" si="39"/>
         <v>147.00000000196769</v>
       </c>
       <c r="AR220" s="10">
@@ -26691,23 +26776,27 @@
         <v>699</v>
       </c>
       <c r="AT220" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11438389788905252</v>
       </c>
       <c r="AU220" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>42</v>
       </c>
       <c r="AV220" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.4852071005917159E-2</v>
       </c>
       <c r="AW220" s="36">
         <f t="shared" si="35"/>
         <v>8.3966869697318341E-2</v>
       </c>
+      <c r="AX220" s="38">
+        <f t="shared" si="36"/>
+        <v>0.1099476439790576</v>
+      </c>
     </row>
-    <row r="221" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>44112</v>
       </c>
@@ -26726,7 +26815,7 @@
         <v>354</v>
       </c>
       <c r="G221" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.17708854427213608</v>
       </c>
       <c r="H221" s="10">
@@ -26740,7 +26829,7 @@
         <v>42861.000000101398</v>
       </c>
       <c r="K221" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6.5628476084538381E-2</v>
       </c>
       <c r="L221" s="10">
@@ -26771,7 +26860,7 @@
         <v>186</v>
       </c>
       <c r="U221" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.304652326163082E-2</v>
       </c>
       <c r="V221" s="17">
@@ -26799,7 +26888,7 @@
         <v>97</v>
       </c>
       <c r="AC221" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.12916111850865514</v>
       </c>
       <c r="AD221" s="17">
@@ -26840,12 +26929,12 @@
       <c r="AO221" s="10">
         <v>0.59767981438499995</v>
       </c>
-      <c r="AP221" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP221" s="39">
+        <f t="shared" si="44"/>
         <v>3863.9999999990246</v>
       </c>
-      <c r="AQ221" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ221" s="39">
+        <f t="shared" si="39"/>
         <v>143.99999999965803</v>
       </c>
       <c r="AR221" s="10">
@@ -26856,23 +26945,27 @@
         <v>721</v>
       </c>
       <c r="AT221" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11152358855375097</v>
       </c>
       <c r="AU221" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>22</v>
       </c>
       <c r="AV221" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.1969532100108813E-2</v>
       </c>
       <c r="AW221" s="36">
         <f t="shared" si="35"/>
         <v>8.1572561379131561E-2</v>
       </c>
+      <c r="AX221" s="38">
+        <f t="shared" si="36"/>
+        <v>5.2884615384615384E-2</v>
+      </c>
     </row>
-    <row r="222" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>44113</v>
       </c>
@@ -26891,7 +26984,7 @@
         <v>352</v>
       </c>
       <c r="G222" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16154199173932995</v>
       </c>
       <c r="H222" s="10">
@@ -26905,7 +26998,7 @@
         <v>49438.000000238724</v>
       </c>
       <c r="K222" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.08494835789718E-2</v>
       </c>
       <c r="L222" s="10">
@@ -26936,7 +27029,7 @@
         <v>203</v>
       </c>
       <c r="U222" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.316200091785222E-2</v>
       </c>
       <c r="V222" s="17">
@@ -26964,7 +27057,7 @@
         <v>92</v>
       </c>
       <c r="AC222" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.116751269035533</v>
       </c>
       <c r="AD222" s="17">
@@ -27005,12 +27098,12 @@
       <c r="AO222" s="10">
         <v>0.59571659087499995</v>
       </c>
-      <c r="AP222" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP222" s="39">
+        <f t="shared" si="44"/>
         <v>4060.9999999948745</v>
       </c>
-      <c r="AQ222" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ222" s="39">
+        <f t="shared" si="39"/>
         <v>196.99999999584998</v>
       </c>
       <c r="AR222" s="10">
@@ -27021,23 +27114,27 @@
         <v>772</v>
       </c>
       <c r="AT222" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11324629602464427</v>
       </c>
       <c r="AU222" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>51</v>
       </c>
       <c r="AV222" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.5512756378189096E-2</v>
       </c>
       <c r="AW222" s="36">
         <f t="shared" si="35"/>
         <v>7.9389887290943165E-2</v>
       </c>
+      <c r="AX222" s="38">
+        <f t="shared" si="36"/>
+        <v>0.11971830985915492</v>
+      </c>
     </row>
-    <row r="223" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>44114</v>
       </c>
@@ -27056,7 +27153,7 @@
         <v>276</v>
       </c>
       <c r="G223" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12562585343650431</v>
       </c>
       <c r="H223" s="10">
@@ -27070,7 +27167,7 @@
         <v>51707.00000082051</v>
       </c>
       <c r="K223" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>5.9534081104400345E-2</v>
       </c>
       <c r="L223" s="10">
@@ -27102,7 +27199,7 @@
         <v>210</v>
       </c>
       <c r="U223" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.5584888484296762E-2</v>
       </c>
       <c r="V223" s="17">
@@ -27130,7 +27227,7 @@
         <v>80</v>
       </c>
       <c r="AC223" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="AD223" s="17">
@@ -27171,12 +27268,12 @@
       <c r="AO223" s="10">
         <v>0.59142816861600001</v>
       </c>
-      <c r="AP223" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP223" s="39">
+        <f t="shared" si="44"/>
         <v>4194.9999999932879</v>
       </c>
-      <c r="AQ223" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ223" s="39">
+        <f t="shared" si="39"/>
         <v>133.99999999841339</v>
       </c>
       <c r="AR223" s="10">
@@ -27187,23 +27284,27 @@
         <v>812</v>
       </c>
       <c r="AT223" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11447906386578317</v>
       </c>
       <c r="AU223" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>40</v>
       </c>
       <c r="AV223" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.8357044515832952E-2</v>
       </c>
       <c r="AW223" s="36">
         <f t="shared" si="35"/>
         <v>8.0307223695544633E-2</v>
       </c>
+      <c r="AX223" s="38">
+        <f t="shared" si="36"/>
+        <v>8.8300220750551883E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>44115</v>
       </c>
@@ -27222,7 +27323,7 @@
         <v>246</v>
       </c>
       <c r="G224" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1088495575221239</v>
       </c>
       <c r="H224" s="10">
@@ -27232,11 +27333,11 @@
         <v>4.3235384144000001E-2</v>
       </c>
       <c r="J224" s="17">
-        <f t="shared" ref="J224:J236" si="46">P224/I224</f>
+        <f t="shared" ref="J224:J236" si="47">P224/I224</f>
         <v>52272.000000574342</v>
       </c>
       <c r="K224" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>7.9252577319587625E-2</v>
       </c>
       <c r="L224" s="10">
@@ -27268,7 +27369,7 @@
         <v>190</v>
       </c>
       <c r="U224" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.4070796460176997E-2</v>
       </c>
       <c r="V224" s="17">
@@ -27296,7 +27397,7 @@
         <v>50</v>
       </c>
       <c r="AC224" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.3134962805526036E-2</v>
       </c>
       <c r="AD224" s="17">
@@ -27337,12 +27438,12 @@
       <c r="AO224" s="10">
         <v>0.58441204523699997</v>
       </c>
-      <c r="AP224" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP224" s="39">
+        <f t="shared" si="44"/>
         <v>4288.9999999943429</v>
       </c>
-      <c r="AQ224" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ224" s="39">
+        <f t="shared" si="39"/>
         <v>94.000000001055014</v>
       </c>
       <c r="AR224" s="10">
@@ -27353,23 +27454,27 @@
         <v>846</v>
       </c>
       <c r="AT224" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11527456056683472</v>
       </c>
       <c r="AU224" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>34</v>
       </c>
       <c r="AV224" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.5475648611743286E-2</v>
       </c>
       <c r="AW224" s="36">
         <f t="shared" si="35"/>
         <v>8.0238135978527941E-2</v>
       </c>
+      <c r="AX224" s="38">
+        <f t="shared" si="36"/>
+        <v>7.8703703703703706E-2</v>
+      </c>
     </row>
-    <row r="225" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>44116</v>
       </c>
@@ -27388,7 +27493,7 @@
         <v>490</v>
       </c>
       <c r="G225" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18617021276595744</v>
       </c>
       <c r="H225" s="10">
@@ -27398,11 +27503,11 @@
         <v>4.9354935492999998E-2</v>
       </c>
       <c r="J225" s="17">
+        <f t="shared" si="47"/>
+        <v>53328.00000059358</v>
+      </c>
+      <c r="K225" s="10">
         <f t="shared" si="46"/>
-        <v>53328.00000059358</v>
-      </c>
-      <c r="K225" s="10">
-        <f t="shared" si="45"/>
         <v>0.11371547922951961</v>
       </c>
       <c r="L225" s="10">
@@ -27434,7 +27539,7 @@
         <v>274</v>
       </c>
       <c r="U225" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.10410334346504559</v>
       </c>
       <c r="V225" s="17">
@@ -27462,7 +27567,7 @@
         <v>118</v>
       </c>
       <c r="AC225" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.11788211788211789</v>
       </c>
       <c r="AD225" s="17">
@@ -27503,12 +27608,12 @@
       <c r="AO225" s="10">
         <v>0.58053391237700003</v>
       </c>
-      <c r="AP225" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP225" s="39">
+        <f t="shared" si="44"/>
         <v>4544.9999999995334</v>
       </c>
-      <c r="AQ225" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ225" s="39">
+        <f t="shared" si="39"/>
         <v>256.00000000519049</v>
       </c>
       <c r="AR225" s="10">
@@ -27519,23 +27624,27 @@
         <v>904</v>
       </c>
       <c r="AT225" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11546813130668029</v>
       </c>
       <c r="AU225" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>58</v>
       </c>
       <c r="AV225" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.5663716814159292E-2</v>
       </c>
       <c r="AW225" s="36">
         <f t="shared" si="35"/>
         <v>8.2681856231068482E-2</v>
       </c>
+      <c r="AX225" s="38">
+        <f t="shared" si="36"/>
+        <v>0.11623246492985972</v>
+      </c>
     </row>
-    <row r="226" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>44117</v>
       </c>
@@ -27554,7 +27663,7 @@
         <v>446</v>
       </c>
       <c r="G226" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16165277274374773</v>
       </c>
       <c r="H226" s="10">
@@ -27564,11 +27673,11 @@
         <v>4.6321480137999999E-2</v>
       </c>
       <c r="J226" s="17">
+        <f t="shared" si="47"/>
+        <v>59562.000000441352</v>
+      </c>
+      <c r="K226" s="10">
         <f t="shared" si="46"/>
-        <v>59562.000000441352</v>
-      </c>
-      <c r="K226" s="10">
-        <f t="shared" si="45"/>
         <v>5.3580009610764055E-2</v>
       </c>
       <c r="L226" s="10">
@@ -27576,7 +27685,7 @@
         <v>6.5796104190788712E-2</v>
       </c>
       <c r="M226" s="10">
-        <f t="shared" ref="M226:M237" si="47">F226/D226</f>
+        <f t="shared" ref="M226:M237" si="48">F226/D226</f>
         <v>5.3580009610764055E-2</v>
       </c>
       <c r="N226" s="10"/>
@@ -27601,7 +27710,7 @@
         <v>308</v>
       </c>
       <c r="U226" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.1116346502355926</v>
       </c>
       <c r="V226" s="17">
@@ -27629,7 +27738,7 @@
         <v>101</v>
       </c>
       <c r="AC226" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.5553453169347213E-2</v>
       </c>
       <c r="AD226" s="17">
@@ -27670,12 +27779,12 @@
       <c r="AO226" s="10">
         <v>0.57003021147999999</v>
       </c>
-      <c r="AP226" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP226" s="39">
+        <f t="shared" si="44"/>
         <v>4716.9999999969996</v>
       </c>
-      <c r="AQ226" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ226" s="39">
+        <f t="shared" si="39"/>
         <v>171.99999999746615</v>
       </c>
       <c r="AR226" s="10">
@@ -27686,23 +27795,27 @@
         <v>950</v>
       </c>
       <c r="AT226" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11480362537764351</v>
       </c>
       <c r="AU226" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>46</v>
       </c>
       <c r="AV226" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.7477203647416412E-2</v>
       </c>
       <c r="AW226" s="36">
         <f t="shared" si="35"/>
         <v>7.8111878240562621E-2</v>
       </c>
+      <c r="AX226" s="38">
+        <f t="shared" si="36"/>
+        <v>8.7286527514231493E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>44118</v>
       </c>
@@ -27721,7 +27834,7 @@
         <v>511</v>
       </c>
       <c r="G227" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16743119266055045</v>
       </c>
       <c r="H227" s="10">
@@ -27731,11 +27844,11 @@
         <v>4.5166637067999997E-2</v>
       </c>
       <c r="J227" s="17">
+        <f t="shared" si="47"/>
+        <v>67572.000000910062</v>
+      </c>
+      <c r="K227" s="10">
         <f t="shared" si="46"/>
-        <v>67572.000000910062</v>
-      </c>
-      <c r="K227" s="10">
-        <f t="shared" si="45"/>
         <v>5.3541492036881813E-2</v>
       </c>
       <c r="L227" s="10">
@@ -27743,7 +27856,7 @@
         <v>6.5260538885437522E-2</v>
       </c>
       <c r="M227" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5.3541492036881813E-2</v>
       </c>
       <c r="N227" s="10"/>
@@ -27767,7 +27880,7 @@
         <v>324</v>
       </c>
       <c r="U227" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.10615989515072084</v>
       </c>
       <c r="V227" s="17">
@@ -27795,7 +27908,7 @@
         <v>107</v>
       </c>
       <c r="AC227" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.7538742023700997E-2</v>
       </c>
       <c r="AD227" s="17">
@@ -27836,12 +27949,12 @@
       <c r="AO227" s="10">
         <v>0.55998178920999997</v>
       </c>
-      <c r="AP227" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP227" s="39">
+        <f t="shared" si="44"/>
         <v>4919.9999999990596</v>
       </c>
-      <c r="AQ227" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ227" s="39">
+        <f t="shared" si="39"/>
         <v>203.00000000206001</v>
       </c>
       <c r="AR227" s="10">
@@ -27852,23 +27965,27 @@
         <v>1002</v>
       </c>
       <c r="AT227" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11404507170498521</v>
       </c>
       <c r="AU227" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>52</v>
       </c>
       <c r="AV227" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.8847408481333816E-2</v>
       </c>
       <c r="AW227" s="36">
         <f t="shared" si="35"/>
         <v>7.619689746757867E-2</v>
       </c>
+      <c r="AX227" s="38">
+        <f t="shared" si="36"/>
+        <v>9.285714285714286E-2</v>
+      </c>
     </row>
-    <row r="228" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>44119</v>
       </c>
@@ -27887,7 +28004,7 @@
         <v>492</v>
       </c>
       <c r="G228" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14963503649635038</v>
       </c>
       <c r="H228" s="10">
@@ -27897,11 +28014,11 @@
         <v>4.4183452705000001E-2</v>
       </c>
       <c r="J228" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>74417.00000117725</v>
       </c>
       <c r="K228" s="10">
-        <f t="shared" ref="K228:K236" si="48">F228/D228</f>
+        <f t="shared" ref="K228:K236" si="49">F228/D228</f>
         <v>5.0606871014194608E-2</v>
       </c>
       <c r="L228" s="10">
@@ -27909,7 +28026,7 @@
         <v>6.7154227964030325E-2</v>
       </c>
       <c r="M228" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>5.0606871014194608E-2</v>
       </c>
       <c r="N228" s="10"/>
@@ -27933,7 +28050,7 @@
         <v>348</v>
       </c>
       <c r="U228" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.10583941605839416</v>
       </c>
       <c r="V228" s="17">
@@ -27961,7 +28078,7 @@
         <v>105</v>
       </c>
       <c r="AC228" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8.5089141004862243E-2</v>
       </c>
       <c r="AD228" s="17">
@@ -28002,12 +28119,12 @@
       <c r="AO228" s="10">
         <v>0.55733994395300002</v>
       </c>
-      <c r="AP228" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP228" s="39">
+        <f t="shared" si="44"/>
         <v>5170.9999999959346</v>
       </c>
-      <c r="AQ228" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ228" s="39">
+        <f t="shared" si="39"/>
         <v>250.99999999687498</v>
       </c>
       <c r="AR228" s="10">
@@ -28018,7 +28135,7 @@
         <v>1047</v>
       </c>
       <c r="AT228" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11284759646475534</v>
       </c>
       <c r="AU228" s="17">
@@ -28026,15 +28143,19 @@
         <v>45</v>
       </c>
       <c r="AV228" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.4744429882044561E-2</v>
       </c>
       <c r="AW228" s="36">
         <f t="shared" si="35"/>
         <v>7.6753343903357168E-2</v>
       </c>
+      <c r="AX228" s="38">
+        <f t="shared" si="36"/>
+        <v>7.8534031413612565E-2</v>
+      </c>
     </row>
-    <row r="229" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>44120</v>
       </c>
@@ -28053,7 +28174,7 @@
         <v>559</v>
       </c>
       <c r="G229" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.15840181354491356</v>
       </c>
       <c r="H229" s="10">
@@ -28063,19 +28184,19 @@
         <v>4.3446679634E-2</v>
       </c>
       <c r="J229" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>81226.000001121283</v>
       </c>
       <c r="K229" s="10">
+        <f t="shared" si="49"/>
+        <v>5.0342219020172913E-2</v>
+      </c>
+      <c r="L229" s="10">
+        <f t="shared" ref="L229:L237" si="50">AVERAGE(K226:K232)</f>
+        <v>6.277854321455037E-2</v>
+      </c>
+      <c r="M229" s="10">
         <f t="shared" si="48"/>
-        <v>5.0342219020172913E-2</v>
-      </c>
-      <c r="L229" s="10">
-        <f t="shared" ref="L229:L237" si="49">AVERAGE(K226:K232)</f>
-        <v>6.277854321455037E-2</v>
-      </c>
-      <c r="M229" s="10">
-        <f t="shared" si="47"/>
         <v>5.0342219020172913E-2</v>
       </c>
       <c r="N229" s="10"/>
@@ -28099,7 +28220,7 @@
         <v>346</v>
       </c>
       <c r="U229" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.8044771890053839E-2</v>
       </c>
       <c r="V229" s="17">
@@ -28127,7 +28248,7 @@
         <v>108</v>
       </c>
       <c r="AC229" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.5156576200417533E-2</v>
       </c>
       <c r="AD229" s="17">
@@ -28168,12 +28289,12 @@
       <c r="AO229" s="10">
         <v>0.555758869574</v>
       </c>
-      <c r="AP229" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP229" s="39">
+        <f t="shared" si="44"/>
         <v>5466.9999999994379</v>
       </c>
-      <c r="AQ229" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ229" s="39">
+        <f t="shared" si="39"/>
         <v>296.00000000350337</v>
       </c>
       <c r="AR229" s="10">
@@ -28184,23 +28305,27 @@
         <v>1110</v>
       </c>
       <c r="AT229" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.1128392802683745</v>
       </c>
       <c r="AU229" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>63</v>
       </c>
       <c r="AV229" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.916058394160584E-2</v>
       </c>
       <c r="AW229" s="36">
         <f t="shared" si="35"/>
         <v>7.5535494798060682E-2</v>
       </c>
+      <c r="AX229" s="38">
+        <f t="shared" si="36"/>
+        <v>0.10378912685337727</v>
+      </c>
     </row>
-    <row r="230" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>44121</v>
       </c>
@@ -28219,7 +28344,7 @@
         <v>486</v>
       </c>
       <c r="G230" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.13366336633663367</v>
       </c>
       <c r="H230" s="10">
@@ -28229,19 +28354,19 @@
         <v>4.2238304891E-2</v>
       </c>
       <c r="J230" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>86083.000001611028</v>
       </c>
       <c r="K230" s="10">
+        <f t="shared" si="49"/>
+        <v>5.578512396694215E-2</v>
+      </c>
+      <c r="L230" s="10">
+        <f t="shared" si="50"/>
+        <v>6.3480636062449997E-2</v>
+      </c>
+      <c r="M230" s="10">
         <f t="shared" si="48"/>
-        <v>5.578512396694215E-2</v>
-      </c>
-      <c r="L230" s="10">
-        <f t="shared" si="49"/>
-        <v>6.3480636062449997E-2</v>
-      </c>
-      <c r="M230" s="10">
-        <f t="shared" si="47"/>
         <v>5.578512396694215E-2</v>
       </c>
       <c r="N230" s="10"/>
@@ -28265,7 +28390,7 @@
         <v>319</v>
       </c>
       <c r="U230" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.7733773377337732E-2</v>
       </c>
       <c r="V230" s="17">
@@ -28293,7 +28418,7 @@
         <v>76</v>
       </c>
       <c r="AC230" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.0098879367172049E-2</v>
       </c>
       <c r="AD230" s="17">
@@ -28334,39 +28459,43 @@
       <c r="AO230" s="10">
         <v>0.55187445509999999</v>
       </c>
-      <c r="AP230" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP230" s="39">
+        <f t="shared" si="44"/>
         <v>5696.9999999972997</v>
       </c>
-      <c r="AQ230" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ230" s="39">
+        <f t="shared" si="39"/>
         <v>229.99999999786178</v>
       </c>
       <c r="AR230" s="10">
-        <f t="shared" ref="AR230:AR236" si="50">AQ230/P229</f>
+        <f t="shared" ref="AR230:AR236" si="51">AQ230/P229</f>
         <v>6.5174270330932774E-2</v>
       </c>
       <c r="AS230" s="17">
         <v>1178</v>
       </c>
       <c r="AT230" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11411411411411411</v>
       </c>
       <c r="AU230" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>68</v>
       </c>
       <c r="AV230" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.9268914706715785E-2</v>
       </c>
       <c r="AW230" s="36">
         <f t="shared" si="35"/>
         <v>7.6060947827131881E-2</v>
       </c>
+      <c r="AX230" s="38">
+        <f t="shared" si="36"/>
+        <v>0.11564625850340136</v>
+      </c>
     </row>
-    <row r="231" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>44122</v>
       </c>
@@ -28385,7 +28514,7 @@
         <v>468</v>
       </c>
       <c r="G231" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.12306074151985275</v>
       </c>
       <c r="H231" s="10">
@@ -28395,19 +28524,19 @@
         <v>4.3724705665000002E-2</v>
       </c>
       <c r="J231" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>86976.000001851586</v>
       </c>
       <c r="K231" s="10">
+        <f t="shared" si="49"/>
+        <v>9.2508400869737106E-2</v>
+      </c>
+      <c r="L231" s="10">
+        <f t="shared" si="50"/>
+        <v>6.3724880423677313E-2</v>
+      </c>
+      <c r="M231" s="10">
         <f t="shared" si="48"/>
-        <v>9.2508400869737106E-2</v>
-      </c>
-      <c r="L231" s="10">
-        <f t="shared" si="49"/>
-        <v>6.3724880423677313E-2</v>
-      </c>
-      <c r="M231" s="10">
-        <f t="shared" si="47"/>
         <v>9.2508400869737106E-2</v>
       </c>
       <c r="N231" s="10"/>
@@ -28431,7 +28560,7 @@
         <v>271</v>
       </c>
       <c r="U231" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7.1259531948461741E-2</v>
       </c>
       <c r="V231" s="17">
@@ -28459,7 +28588,7 @@
         <v>97</v>
       </c>
       <c r="AC231" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5.91102985984156E-2</v>
       </c>
       <c r="AD231" s="17">
@@ -28500,39 +28629,43 @@
       <c r="AO231" s="10">
         <v>0.54406449819199998</v>
       </c>
-      <c r="AP231" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP231" s="39">
+        <f t="shared" si="44"/>
         <v>5870.9999999898719</v>
       </c>
-      <c r="AQ231" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ231" s="39">
+        <f t="shared" si="39"/>
         <v>173.99999999257216</v>
       </c>
       <c r="AR231" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.7854785476504992E-2</v>
       </c>
       <c r="AS231" s="17">
         <v>1238</v>
       </c>
       <c r="AT231" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11472523399128903</v>
       </c>
       <c r="AU231" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
       <c r="AV231" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.65016501650165E-2</v>
       </c>
       <c r="AW231" s="36">
         <f t="shared" si="35"/>
         <v>7.6785114788336731E-2</v>
       </c>
+      <c r="AX231" s="38">
+        <f t="shared" si="36"/>
+        <v>9.8846787479406922E-2</v>
+      </c>
     </row>
-    <row r="232" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>44123</v>
       </c>
@@ -28551,7 +28684,7 @@
         <v>671</v>
       </c>
       <c r="G232" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.15780809031044216</v>
       </c>
       <c r="H232" s="10">
@@ -28561,19 +28694,19 @@
         <v>4.710104792E-2</v>
       </c>
       <c r="J232" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>90274.00000148447</v>
       </c>
       <c r="K232" s="10">
+        <f t="shared" si="49"/>
+        <v>8.3085685983159976E-2</v>
+      </c>
+      <c r="L232" s="10">
+        <f t="shared" si="50"/>
+        <v>6.4448095247253784E-2</v>
+      </c>
+      <c r="M232" s="10">
         <f t="shared" si="48"/>
-        <v>8.3085685983159976E-2</v>
-      </c>
-      <c r="L232" s="10">
-        <f t="shared" si="49"/>
-        <v>6.4448095247253784E-2</v>
-      </c>
-      <c r="M232" s="10">
-        <f t="shared" si="47"/>
         <v>8.3085685983159976E-2</v>
       </c>
       <c r="N232" s="10"/>
@@ -28598,7 +28731,7 @@
         <v>349</v>
       </c>
       <c r="U232" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.2079021636876762E-2</v>
       </c>
       <c r="V232" s="17">
@@ -28626,7 +28759,7 @@
         <v>128</v>
       </c>
       <c r="AC232" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.4679113185530915E-2</v>
       </c>
       <c r="AD232" s="17">
@@ -28667,39 +28800,43 @@
       <c r="AO232" s="10">
         <v>0.54196475309699998</v>
       </c>
-      <c r="AP232" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP232" s="39">
+        <f t="shared" si="44"/>
         <v>6211.9999999978136</v>
       </c>
-      <c r="AQ232" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ232" s="39">
+        <f t="shared" si="39"/>
         <v>341.00000000794171</v>
       </c>
       <c r="AR232" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.9666053118049358E-2</v>
       </c>
       <c r="AS232" s="17">
         <v>1331</v>
       </c>
       <c r="AT232" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11612284069097889</v>
       </c>
       <c r="AU232" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>93</v>
       </c>
       <c r="AV232" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.4454378122534842E-2</v>
       </c>
       <c r="AW232" s="36">
         <f t="shared" si="35"/>
         <v>7.3412502907304625E-2</v>
       </c>
+      <c r="AX232" s="38">
+        <f t="shared" si="36"/>
+        <v>0.14069591527987896</v>
+      </c>
     </row>
-    <row r="233" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>44124</v>
       </c>
@@ -28718,7 +28855,7 @@
         <v>701</v>
       </c>
       <c r="G233" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.15437128385818102</v>
       </c>
       <c r="H233" s="10">
@@ -28728,19 +28865,19 @@
         <v>4.5980153907999997E-2</v>
       </c>
       <c r="J233" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>98760.000000998698</v>
       </c>
       <c r="K233" s="10">
+        <f t="shared" si="49"/>
+        <v>5.8494659546061416E-2</v>
+      </c>
+      <c r="L233" s="10">
+        <f t="shared" si="50"/>
+        <v>6.4608533318315245E-2</v>
+      </c>
+      <c r="M233" s="10">
         <f t="shared" si="48"/>
-        <v>5.8494659546061416E-2</v>
-      </c>
-      <c r="L233" s="10">
-        <f t="shared" si="49"/>
-        <v>6.4608533318315245E-2</v>
-      </c>
-      <c r="M233" s="10">
-        <f t="shared" si="47"/>
         <v>5.8494659546061416E-2</v>
       </c>
       <c r="N233" s="10"/>
@@ -28764,7 +28901,7 @@
         <v>388</v>
       </c>
       <c r="U233" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.5443734860162962E-2</v>
       </c>
       <c r="V233" s="17">
@@ -28792,7 +28929,7 @@
         <v>129</v>
       </c>
       <c r="AC233" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6.8580542264752797E-2</v>
       </c>
       <c r="AD233" s="17">
@@ -28833,39 +28970,43 @@
       <c r="AO233" s="10">
         <v>0.54550686508199997</v>
       </c>
-      <c r="AP233" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP233" s="39">
+        <f t="shared" si="44"/>
         <v>6634.9999999923657</v>
       </c>
-      <c r="AQ233" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ233" s="39">
+        <f t="shared" si="39"/>
         <v>422.99999999455213</v>
       </c>
       <c r="AR233" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9.9482596423930411E-2</v>
       </c>
       <c r="AS233" s="17">
         <v>1412</v>
       </c>
       <c r="AT233" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11608978048178903</v>
       </c>
       <c r="AU233" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>81</v>
       </c>
       <c r="AV233" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.904985888993415E-2</v>
       </c>
       <c r="AW233" s="36">
         <f t="shared" si="35"/>
         <v>7.8288653243342249E-2</v>
       </c>
+      <c r="AX233" s="38">
+        <f t="shared" si="36"/>
+        <v>0.11773255813953488</v>
+      </c>
     </row>
-    <row r="234" spans="1:49" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>44125</v>
       </c>
@@ -28894,19 +29035,19 @@
         <v>4.2967334928999998E-2</v>
       </c>
       <c r="J234" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>113179.00000164565</v>
       </c>
       <c r="K234" s="10">
+        <f t="shared" si="49"/>
+        <v>5.5251202565473008E-2</v>
+      </c>
+      <c r="L234" s="10">
+        <f t="shared" si="50"/>
+        <v>6.2492340863035963E-2</v>
+      </c>
+      <c r="M234" s="10">
         <f t="shared" si="48"/>
-        <v>5.5251202565473008E-2</v>
-      </c>
-      <c r="L234" s="10">
-        <f t="shared" si="49"/>
-        <v>6.2492340863035963E-2</v>
-      </c>
-      <c r="M234" s="10">
-        <f t="shared" si="47"/>
         <v>5.5251202565473008E-2</v>
       </c>
       <c r="N234" s="10"/>
@@ -28930,7 +29071,7 @@
         <v>436</v>
       </c>
       <c r="U234" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8.9656590581945306E-2</v>
       </c>
       <c r="V234" s="17">
@@ -28958,7 +29099,7 @@
         <v>172</v>
       </c>
       <c r="AC234" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>8.6086086086086089E-2</v>
       </c>
       <c r="AD234" s="17">
@@ -28999,39 +29140,43 @@
       <c r="AO234" s="10">
         <v>0.541878367975</v>
       </c>
-      <c r="AP234" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP234" s="39">
+        <f t="shared" si="44"/>
         <v>7038.9999999952497</v>
       </c>
-      <c r="AQ234" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ234" s="39">
+        <f t="shared" si="39"/>
         <v>404.00000000288401</v>
       </c>
       <c r="AR234" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8.8967187844722309E-2</v>
       </c>
       <c r="AS234" s="17">
         <v>1524</v>
       </c>
       <c r="AT234" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11732101616628175</v>
       </c>
       <c r="AU234" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>112</v>
       </c>
       <c r="AV234" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2.4664170887469722E-2</v>
       </c>
       <c r="AW234" s="36">
         <f t="shared" si="35"/>
         <v>8.048719677680867E-2</v>
       </c>
+      <c r="AX234" s="38">
+        <f t="shared" si="36"/>
+        <v>0.14873837981407703</v>
+      </c>
     </row>
-    <row r="235" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>44126</v>
       </c>
@@ -29050,7 +29195,7 @@
         <v>788</v>
       </c>
       <c r="G235" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.15336706889840404</v>
       </c>
       <c r="H235" s="10">
@@ -29060,19 +29205,19 @@
         <v>4.0516031352999998E-2</v>
       </c>
       <c r="J235" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>126814.00000001624</v>
       </c>
       <c r="K235" s="10">
+        <f t="shared" si="49"/>
+        <v>5.5669374779229952E-2</v>
+      </c>
+      <c r="L235" s="10">
+        <f t="shared" si="50"/>
+        <v>5.73569838940396E-2</v>
+      </c>
+      <c r="M235" s="10">
         <f t="shared" si="48"/>
-        <v>5.5669374779229952E-2</v>
-      </c>
-      <c r="L235" s="10">
-        <f t="shared" si="49"/>
-        <v>5.73569838940396E-2</v>
-      </c>
-      <c r="M235" s="10">
-        <f t="shared" si="47"/>
         <v>5.5669374779229952E-2</v>
       </c>
       <c r="O235" s="10">
@@ -29095,7 +29240,7 @@
         <v>501</v>
       </c>
       <c r="U235" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.7508758271701051E-2</v>
       </c>
       <c r="V235" s="17">
@@ -29123,7 +29268,7 @@
         <v>136</v>
       </c>
       <c r="AC235" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6.4608076009501192E-2</v>
       </c>
       <c r="AD235" s="17">
@@ -29164,39 +29309,43 @@
       <c r="AO235" s="10">
         <v>0.53716069095600005</v>
       </c>
-      <c r="AP235" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP235" s="39">
+        <f t="shared" si="44"/>
         <v>7400.9999999917691</v>
       </c>
-      <c r="AQ235" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ235" s="39">
+        <f t="shared" si="39"/>
         <v>361.99999999651936</v>
       </c>
       <c r="AR235" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>7.4439646308147103E-2</v>
       </c>
       <c r="AS235" s="17">
         <v>1618</v>
       </c>
       <c r="AT235" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11743358978080999</v>
       </c>
       <c r="AU235" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>94</v>
       </c>
       <c r="AV235" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.9329631914456098E-2</v>
       </c>
       <c r="AW235" s="36">
         <f t="shared" si="35"/>
         <v>7.9372695772064655E-2</v>
       </c>
+      <c r="AX235" s="38">
+        <f t="shared" si="36"/>
+        <v>0.12239583333333333</v>
+      </c>
     </row>
-    <row r="236" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>44127</v>
       </c>
@@ -29215,7 +29364,7 @@
         <v>785</v>
       </c>
       <c r="G236" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.14337899543378996</v>
       </c>
       <c r="H236" s="10">
@@ -29225,19 +29374,19 @@
         <v>3.8661977798E-2</v>
       </c>
       <c r="J236" s="17">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>141612.00000180083</v>
       </c>
       <c r="K236" s="10">
+        <f t="shared" si="49"/>
+        <v>5.1465285517603092E-2</v>
+      </c>
+      <c r="L236" s="10">
+        <f t="shared" si="50"/>
+        <v>5.3068866879186195E-2</v>
+      </c>
+      <c r="M236" s="10">
         <f t="shared" si="48"/>
-        <v>5.1465285517603092E-2</v>
-      </c>
-      <c r="L236" s="10">
-        <f t="shared" si="49"/>
-        <v>5.3068866879186195E-2</v>
-      </c>
-      <c r="M236" s="10">
-        <f t="shared" si="47"/>
         <v>5.1465285517603092E-2</v>
       </c>
       <c r="O236" s="10">
@@ -29260,7 +29409,7 @@
         <v>570</v>
       </c>
       <c r="U236" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.10410958904109589</v>
       </c>
       <c r="V236" s="17">
@@ -29288,7 +29437,7 @@
         <v>143</v>
       </c>
       <c r="AC236" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6.4298561151079139E-2</v>
       </c>
       <c r="AD236" s="17">
@@ -29329,39 +29478,43 @@
       <c r="AO236" s="10">
         <v>0.54604133763600005</v>
       </c>
-      <c r="AP236" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP236" s="39">
+        <f t="shared" si="44"/>
         <v>7951.9999999930687</v>
       </c>
-      <c r="AQ236" s="42">
-        <f t="shared" si="38"/>
+      <c r="AQ236" s="39">
+        <f t="shared" si="39"/>
         <v>551.00000000129967</v>
       </c>
       <c r="AR236" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.10724017127312177</v>
       </c>
       <c r="AS236" s="17">
         <v>1716</v>
       </c>
       <c r="AT236" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.11783286410767012</v>
       </c>
       <c r="AU236" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>98</v>
       </c>
       <c r="AV236" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.9073569482288829E-2</v>
       </c>
       <c r="AW236" s="36">
         <f t="shared" si="35"/>
         <v>8.1832101539582605E-2</v>
       </c>
+      <c r="AX236" s="38">
+        <f t="shared" si="36"/>
+        <v>0.12311557788944724</v>
+      </c>
     </row>
-    <row r="237" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>44128</v>
       </c>
@@ -29398,11 +29551,11 @@
         <v>4.0971776779987173E-2</v>
       </c>
       <c r="L237" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5.1983708345811161E-2</v>
       </c>
       <c r="M237" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.0971776779987173E-2</v>
       </c>
       <c r="O237" s="10">
@@ -29425,7 +29578,7 @@
         <v>513</v>
       </c>
       <c r="U237" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9.5977549111318991E-2</v>
       </c>
       <c r="V237" s="17">
@@ -29494,11 +29647,11 @@
       <c r="AO237" s="10">
         <v>0.539670956614</v>
       </c>
-      <c r="AP237" s="42">
-        <f t="shared" si="43"/>
+      <c r="AP237" s="39">
+        <f t="shared" si="44"/>
         <v>8134.9999999994361</v>
       </c>
-      <c r="AQ237" s="42">
+      <c r="AQ237" s="39">
         <f>AP237-AP236</f>
         <v>183.00000000636737</v>
       </c>
@@ -29525,8 +29678,12 @@
         <f>AVERAGE(S231:S237)</f>
         <v>7.729644256854086E-2</v>
       </c>
+      <c r="AX237">
+        <f>AU237/AM237</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
-    <row r="238" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
       <c r="E238" s="31"/>
@@ -29627,11 +29784,15 @@
       </c>
       <c r="AT238" s="30"/>
       <c r="AV238" s="35">
-        <f>AVERAGE(AV184:AV237)</f>
-        <v>1.5869192288141515E-2</v>
+        <f>AVERAGE(AV214:AV237)</f>
+        <v>1.8310844465435704E-2</v>
+      </c>
+      <c r="AX238" s="32">
+        <f>AVERAGE(AX184:AX237)</f>
+        <v>8.7332253946213509E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
       <c r="E239" s="17"/>
@@ -29661,7 +29822,7 @@
       <c r="AL239" s="17"/>
       <c r="AM239" s="17"/>
     </row>
-    <row r="240" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
       <c r="E240" s="17"/>

--- a/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
+++ b/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957E582-068F-4DFB-A705-C01A9F56051F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA02253-4CFE-4712-8CA7-85F101A45F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,9 +739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX238" sqref="AX238"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV239" sqref="AV239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29784,8 +29784,8 @@
       </c>
       <c r="AT238" s="30"/>
       <c r="AV238" s="35">
-        <f>AVERAGE(AV214:AV237)</f>
-        <v>1.8310844465435704E-2</v>
+        <f>AVERAGE(AV184:AV237)</f>
+        <v>1.5869192288141515E-2</v>
       </c>
       <c r="AX238" s="32">
         <f>AVERAGE(AX184:AX237)</f>

--- a/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
+++ b/SEIR_2_wave/papers/IS_COVID19_hospitalizace01_CR_trend_20201025_0501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43DEF43-27F2-4BE1-AA11-B182BEAE392A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6657569-F653-408C-BC00-3AC176A329AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="celkovy prehled" sheetId="1" r:id="rId1"/>
@@ -740,47 +740,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW239" sqref="AW239"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M236" sqref="M236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="27" customWidth="1"/>
-    <col min="8" max="15" width="16.5546875" style="10" customWidth="1"/>
-    <col min="16" max="19" width="16.5546875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" style="27" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" style="27" customWidth="1"/>
-    <col min="24" max="24" width="9.5546875" customWidth="1"/>
-    <col min="25" max="25" width="9.5546875" style="27" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" style="13" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" style="27" customWidth="1"/>
-    <col min="28" max="28" width="9.5546875" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" style="27" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" style="20" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" style="27" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" style="13" customWidth="1"/>
-    <col min="34" max="34" width="9.5546875" style="31" customWidth="1"/>
-    <col min="35" max="35" width="9.5546875" customWidth="1"/>
-    <col min="36" max="36" width="9.5546875" style="21" customWidth="1"/>
-    <col min="37" max="38" width="9.5546875" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" customWidth="1"/>
-    <col min="40" max="40" width="16.5546875" style="10" customWidth="1"/>
-    <col min="41" max="44" width="23.5546875" style="10" customWidth="1"/>
-    <col min="45" max="46" width="16.5546875" style="17" customWidth="1"/>
-    <col min="48" max="48" width="27.88671875" customWidth="1"/>
-    <col min="49" max="49" width="27.88671875" style="40" customWidth="1"/>
+    <col min="1" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" style="27" customWidth="1"/>
+    <col min="8" max="15" width="16.54296875" style="10" customWidth="1"/>
+    <col min="16" max="19" width="16.54296875" style="14" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" customWidth="1"/>
+    <col min="21" max="21" width="9.54296875" style="27" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" style="27" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="27" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" style="13" customWidth="1"/>
+    <col min="27" max="27" width="9.54296875" style="27" customWidth="1"/>
+    <col min="28" max="28" width="9.54296875" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" style="27" customWidth="1"/>
+    <col min="30" max="30" width="9.54296875" style="20" customWidth="1"/>
+    <col min="31" max="31" width="9.54296875" customWidth="1"/>
+    <col min="32" max="32" width="9.54296875" style="27" customWidth="1"/>
+    <col min="33" max="33" width="9.54296875" style="13" customWidth="1"/>
+    <col min="34" max="34" width="9.54296875" style="31" customWidth="1"/>
+    <col min="35" max="35" width="9.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="21" customWidth="1"/>
+    <col min="37" max="38" width="9.54296875" customWidth="1"/>
+    <col min="39" max="39" width="16.54296875" customWidth="1"/>
+    <col min="40" max="40" width="16.54296875" style="10" customWidth="1"/>
+    <col min="41" max="44" width="23.54296875" style="10" customWidth="1"/>
+    <col min="45" max="46" width="16.54296875" style="17" customWidth="1"/>
+    <col min="48" max="48" width="27.90625" customWidth="1"/>
+    <col min="49" max="49" width="27.90625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="AT1" s="28"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
       </c>
       <c r="AT2" s="28"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="AT3" s="23"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="AT4" s="42"/>
       <c r="AU4" s="43"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="AT5" s="29"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="AT6" s="23"/>
     </row>
-    <row r="7" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="AT7" s="28"/>
     </row>
-    <row r="8" spans="1:49" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="AW8" s="24"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>43900</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AM9" s="25"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>43901</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="AM10" s="25"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>43902</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="AR11" s="39"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>43903</v>
       </c>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AR12" s="39"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>43904</v>
       </c>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="AR13" s="39"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>43905</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="AR14" s="39"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>43906</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="AR15" s="39"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>43907</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>43908</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>43909</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>43910</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>43911</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>43912</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>43913</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>43914</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>43915</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>43916</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>43917</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>43918</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>43919</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>43920</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>43921</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>43922</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>43923</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>43924</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>43925</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>43926</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>43927</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>43928</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>43929</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>43930</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>43931</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>43932</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>43933</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>43934</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43935</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>43936</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>43937</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>43938</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>43939</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>43940</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>43941</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>43942</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>43943</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>43944</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0.11680490543435292</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>43945</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0.10356900949749237</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>43946</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>9.1329426164159025E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>43947</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0.10008452148785449</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>43948</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0.10868067117420535</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>43949</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>9.0498852992387177E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>43950</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>0.10149008001791215</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>43951</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>0.12165691435728172</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>43952</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.10579125348165666</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>43953</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>9.1213248366567148E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>43954</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>9.8172143130339951E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>43955</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>9.1169722016627652E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>43956</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>8.1589355806829675E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>43957</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>8.7474092820145663E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>43958</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>0.10811153895594719</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>43959</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0.10009989718044063</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>43960</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>9.8284501304292948E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>43961</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>8.5444631814177135E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>43962</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>9.1698490385622014E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>43963</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>8.012923789896155E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>43964</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>8.2021404032662892E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>43965</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>9.0394943130240504E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>43966</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>9.3246626683284067E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>43967</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>7.797480500902336E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>43968</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>8.0689289870805814E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>43969</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>8.1135930568317888E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>43970</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>7.5766781621532428E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
         <v>43971</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>8.0421038420690677E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
         <v>43972</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>9.147704719430827E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
         <v>43973</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>8.4542608116835949E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
         <v>43974</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>7.3631853465560837E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" s="7">
         <v>43975</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>7.8890271018055999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85" s="7">
         <v>43976</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>7.6290974174321402E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
         <v>43977</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>7.1296595868822157E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" s="7">
         <v>43978</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>7.5445606711628227E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" s="7">
         <v>43979</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>8.4893349541654131E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" s="7">
         <v>43980</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>7.5273336351324688E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" s="7">
         <v>43981</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>7.1774384632444607E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" s="7">
         <v>43982</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>7.4992118633672347E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>43983</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>7.844040725030052E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>43984</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>7.8228978639069302E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>43985</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>8.0082053834534123E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" s="7">
         <v>43986</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>9.1959130993398336E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" s="7">
         <v>43987</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>8.0710851877055428E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>43988</v>
       </c>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="AW97" s="32"/>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>43989</v>
       </c>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="AW98" s="32"/>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A99" s="7">
         <v>43990</v>
       </c>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="AW99" s="32"/>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A100" s="7">
         <v>43991</v>
       </c>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="AW100" s="32"/>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>43992</v>
       </c>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="AW101" s="32"/>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A102" s="7">
         <v>43993</v>
       </c>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="AW102" s="32"/>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>43994</v>
       </c>
@@ -11268,7 +11268,7 @@
       </c>
       <c r="AW103" s="32"/>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>43995</v>
       </c>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="AW104" s="32"/>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>43996</v>
       </c>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="AW105" s="32"/>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>43997</v>
       </c>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="AW106" s="32"/>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>43998</v>
       </c>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="AW107" s="32"/>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>43999</v>
       </c>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="AW108" s="32"/>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>44000</v>
       </c>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="AW109" s="32"/>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>44001</v>
       </c>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="AW110" s="32"/>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>44002</v>
       </c>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="AW111" s="32"/>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A112" s="7">
         <v>44003</v>
       </c>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="AW112" s="32"/>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A113" s="7">
         <v>44004</v>
       </c>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="AW113" s="32"/>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A114" s="7">
         <v>44005</v>
       </c>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="AW114" s="32"/>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A115" s="7">
         <v>44006</v>
       </c>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="AW115" s="32"/>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A116" s="7">
         <v>44007</v>
       </c>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="AW116" s="32"/>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A117" s="7">
         <v>44008</v>
       </c>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="AW117" s="32"/>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A118" s="7">
         <v>44009</v>
       </c>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="AW118" s="32"/>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>44010</v>
       </c>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="AW119" s="32"/>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A120" s="7">
         <v>44011</v>
       </c>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="AW120" s="32"/>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A121" s="7">
         <v>44012</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
       <c r="AW121" s="32"/>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A122" s="7">
         <v>44013</v>
       </c>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="AW122" s="32"/>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>44014</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="AW123" s="32"/>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>44015</v>
       </c>
@@ -13494,7 +13494,7 @@
       </c>
       <c r="AW124" s="32"/>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A125" s="7">
         <v>44016</v>
       </c>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="AW125" s="32"/>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>44017</v>
       </c>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="AW126" s="32"/>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>44018</v>
       </c>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="AW127" s="32"/>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A128" s="7">
         <v>44019</v>
       </c>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="AW128" s="32"/>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A129" s="7">
         <v>44020</v>
       </c>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="AW129" s="32"/>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>44021</v>
       </c>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="AW130" s="32"/>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A131" s="7">
         <v>44022</v>
       </c>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="AW131" s="32"/>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>44023</v>
       </c>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="AW132" s="32"/>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A133" s="7">
         <v>44024</v>
       </c>
@@ -14484,7 +14484,7 @@
       </c>
       <c r="AW133" s="32"/>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>44025</v>
       </c>
@@ -14594,7 +14594,7 @@
       </c>
       <c r="AW134" s="32"/>
     </row>
-    <row r="135" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A135" s="7">
         <v>44026</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="AW135" s="32"/>
     </row>
-    <row r="136" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A136" s="7">
         <v>44027</v>
       </c>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="AW136" s="32"/>
     </row>
-    <row r="137" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A137" s="7">
         <v>44028</v>
       </c>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="AW137" s="32"/>
     </row>
-    <row r="138" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A138" s="7">
         <v>44029</v>
       </c>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="AW138" s="32"/>
     </row>
-    <row r="139" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A139" s="7">
         <v>44030</v>
       </c>
@@ -15151,11 +15151,11 @@
         <v>0</v>
       </c>
       <c r="AW139" s="32">
-        <f t="shared" ref="AW82:AW145" si="19">AV139/AR139</f>
+        <f t="shared" ref="AW139:AW145" si="19">AV139/AR139</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A140" s="7">
         <v>44031</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>0.20000000003419702</v>
       </c>
     </row>
-    <row r="141" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A141" s="7">
         <v>44032</v>
       </c>
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A142" s="7">
         <v>44033</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>0.50000000008151346</v>
       </c>
     </row>
-    <row r="143" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A143" s="7">
         <v>44034</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>0.22222222220077051</v>
       </c>
     </row>
-    <row r="144" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>44035</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>0.20000000004371032</v>
       </c>
     </row>
-    <row r="145" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A145" s="7">
         <v>44036</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>9.9999999992840011E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A146" s="7">
         <v>44037</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>0.20000000003667992</v>
       </c>
     </row>
-    <row r="147" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A147" s="7">
         <v>44038</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>44039</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>0.2500000000221263</v>
       </c>
     </row>
-    <row r="149" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>44040</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A150" s="7">
         <v>44041</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>44042</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>0.15384615384494837</v>
       </c>
     </row>
-    <row r="152" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>44043</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>0.39999999996207408</v>
       </c>
     </row>
-    <row r="153" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>44044</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>0.12500000001006129</v>
       </c>
     </row>
-    <row r="154" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>44045</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>0.16666666663950183</v>
       </c>
     </row>
-    <row r="155" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>44046</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>0.20000000000570256</v>
       </c>
     </row>
-    <row r="156" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>44047</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>44048</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>0.12499999998903279</v>
       </c>
     </row>
-    <row r="158" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A158" s="7">
         <v>44049</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>9.090909091338846E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A159" s="7">
         <v>44050</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A160" s="7">
         <v>44051</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A161" s="7">
         <v>44052</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>44053</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>44054</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>9.99999999917702E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A164" s="7">
         <v>44055</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>44056</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>9.9999999990009192E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>44057</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>9.9999999999625971E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>44058</v>
       </c>
@@ -18692,7 +18692,7 @@
         <v>9.0909090923039629E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>44059</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>0.99999999915405624</v>
       </c>
     </row>
-    <row r="169" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>44060</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>0.23076923078248973</v>
       </c>
     </row>
-    <row r="170" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>44061</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A171" s="7">
         <v>44062</v>
       </c>
@@ -19237,7 +19237,7 @@
         <v>0.27272727270304897</v>
       </c>
     </row>
-    <row r="172" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>44063</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>0.21428571429384405</v>
       </c>
     </row>
-    <row r="173" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>44064</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>0.22222222223318105</v>
       </c>
     </row>
-    <row r="174" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A174" s="7">
         <v>44065</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>44066</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>0.25000000003031175</v>
       </c>
     </row>
-    <row r="176" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A176" s="7">
         <v>44067</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>9.0909090903107781E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A177" s="7">
         <v>44068</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>0.20000000000904039</v>
       </c>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>44069</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>8.3333333339799268E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>44070</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A180" s="7">
         <v>44071</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A181" s="7">
         <v>44072</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>0.27272727270541103</v>
       </c>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>44073</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>0.24999999997973532</v>
       </c>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>44074</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>8.333333334047982E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A184" s="7">
         <v>44075</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>7.1428571432856719E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>44076</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>44077</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>0.14999999999367161</v>
       </c>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>44078</v>
       </c>
@@ -21529,7 +21529,7 @@
         <v>9.090909091030859E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A188" s="7">
         <v>44079</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>0.66666666668121854</v>
       </c>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A189" s="7">
         <v>44080</v>
       </c>
@@ -21859,7 +21859,7 @@
         <v>0.42857142864906506</v>
       </c>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>44081</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A191" s="7">
         <v>44082</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A192" s="7">
         <v>44083</v>
       </c>
@@ -22364,7 +22364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A193" s="7">
         <v>44084</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>44085</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>44086</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>44087</v>
       </c>
@@ -23037,7 +23037,7 @@
         <v>9.9600158299074634E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>44088</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>0.10117029234509294</v>
       </c>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>44089</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>0.10072224627884031</v>
       </c>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>44090</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>8.5365853658536592E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>44091</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>5.434782608695652E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>44092</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>0.1134020618556701</v>
       </c>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>44093</v>
       </c>
@@ -24067,7 +24067,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>44094</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>4.716981132075472E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>44095</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>0.12389380530973451</v>
       </c>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>44096</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>8.1967213114754092E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>44097</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>0.13380281690140844</v>
       </c>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>44098</v>
       </c>
@@ -24933,7 +24933,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>44099</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>4.6783625730994149E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>44100</v>
       </c>
@@ -25279,7 +25279,7 @@
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>44101</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>7.6142131979695438E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A211" s="7">
         <v>44102</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>3.9408866995073892E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A212" s="7">
         <v>44103</v>
       </c>
@@ -25799,7 +25799,7 @@
         <v>8.4905660377358486E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>44104</v>
       </c>
@@ -25972,7 +25972,7 @@
         <v>4.5226130653266333E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>44105</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>8.050847457627118E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A215" s="7">
         <v>44106</v>
       </c>
@@ -26318,7 +26318,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A216" s="7">
         <v>44107</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>4.0441176470588237E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A217" s="7">
         <v>44108</v>
       </c>
@@ -26664,7 +26664,7 @@
         <v>8.9605734767025089E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A218" s="7">
         <v>44109</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>6.9069069069069067E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A219" s="7">
         <v>44110</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>7.3863636363636367E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A220" s="7">
         <v>44111</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>0.1099476439790576</v>
       </c>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A221" s="7">
         <v>44112</v>
       </c>
@@ -27357,7 +27357,7 @@
         <v>5.2884615384615384E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>44113</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>0.11971830985915492</v>
       </c>
     </row>
-    <row r="223" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="7">
         <v>44114</v>
       </c>
@@ -27704,7 +27704,7 @@
         <v>8.8300220750551883E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="7">
         <v>44115</v>
       </c>
@@ -27878,7 +27878,7 @@
         <v>7.8703703703703706E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="7">
         <v>44116</v>
       </c>
@@ -28052,7 +28052,7 @@
         <v>0.11623246492985972</v>
       </c>
     </row>
-    <row r="226" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="7">
         <v>44117</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>8.7286527514231493E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7">
         <v>44118</v>
       </c>
@@ -28401,7 +28401,7 @@
         <v>9.285714285714286E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="7">
         <v>44119</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>7.8534031413612565E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="7">
         <v>44120</v>
       </c>
@@ -28749,7 +28749,7 @@
         <v>0.10378912685337727</v>
       </c>
     </row>
-    <row r="230" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="7">
         <v>44121</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>0.11564625850340136</v>
       </c>
     </row>
-    <row r="231" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7">
         <v>44122</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>9.8846787479406922E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="7">
         <v>44123</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>0.14069591527987896</v>
       </c>
     </row>
-    <row r="233" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="7">
         <v>44124</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>0.11773255813953488</v>
       </c>
     </row>
-    <row r="234" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="7">
         <v>44125</v>
       </c>
@@ -29479,7 +29479,7 @@
         <v>113179.00000164565</v>
       </c>
       <c r="K234" s="10">
-        <f t="shared" si="52"/>
+        <f>F234/D234</f>
         <v>5.5251202565473008E-2</v>
       </c>
       <c r="L234" s="10">
@@ -29620,7 +29620,7 @@
         <v>0.14873837981407703</v>
       </c>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A235" s="7">
         <v>44126</v>
       </c>
@@ -29657,11 +29657,11 @@
         <v>5.5669374779229952E-2</v>
       </c>
       <c r="L235" s="10">
-        <f t="shared" si="53"/>
+        <f>AVERAGE(K232:K238)</f>
         <v>5.73569838940396E-2</v>
       </c>
       <c r="M235" s="10">
-        <f t="shared" si="51"/>
+        <f>F235/D235</f>
         <v>5.5669374779229952E-2</v>
       </c>
       <c r="O235" s="10">
@@ -29793,7 +29793,7 @@
         <v>0.12239583333333333</v>
       </c>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A236" s="7">
         <v>44127</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>0.12311557788944724</v>
       </c>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A237" s="7">
         <v>44128</v>
       </c>
@@ -30007,7 +30007,7 @@
         <v>5.1983708345811161E-2</v>
       </c>
       <c r="M237" s="10">
-        <f t="shared" si="51"/>
+        <f>F237/D237</f>
         <v>4.0971776779987173E-2</v>
       </c>
       <c r="O237" s="10">
@@ -30139,7 +30139,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
       <c r="E238" s="31"/>
@@ -30252,7 +30252,7 @@
         <v>8.7332253946213509E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
       <c r="E239" s="17"/>
@@ -30282,7 +30282,7 @@
       <c r="AL239" s="17"/>
       <c r="AM239" s="17"/>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" x14ac:dyDescent="0.35">
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
       <c r="E240" s="17"/>
@@ -30320,7 +30320,7 @@
         <v>0.89268591906381367</v>
       </c>
     </row>
-    <row r="241" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C241" s="17"/>
       <c r="D241" s="17"/>
       <c r="E241" s="17"/>
@@ -30350,7 +30350,7 @@
       <c r="AL241" s="17"/>
       <c r="AM241" s="17"/>
     </row>
-    <row r="242" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
       <c r="E242" s="17"/>
@@ -30380,7 +30380,7 @@
       <c r="AL242" s="17"/>
       <c r="AM242" s="17"/>
     </row>
-    <row r="243" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
       <c r="E243" s="17"/>
@@ -30410,7 +30410,7 @@
       <c r="AL243" s="17"/>
       <c r="AM243" s="17"/>
     </row>
-    <row r="244" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C244" s="17"/>
       <c r="D244" s="17"/>
       <c r="E244" s="17"/>
@@ -30440,7 +30440,7 @@
       <c r="AL244" s="17"/>
       <c r="AM244" s="17"/>
     </row>
-    <row r="245" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C245" s="17"/>
       <c r="D245" s="17"/>
       <c r="E245" s="17"/>
@@ -30470,7 +30470,7 @@
       <c r="AL245" s="17"/>
       <c r="AM245" s="17"/>
     </row>
-    <row r="246" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
       <c r="E246" s="17"/>
@@ -30500,7 +30500,7 @@
       <c r="AL246" s="17"/>
       <c r="AM246" s="17"/>
     </row>
-    <row r="247" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
       <c r="E247" s="17"/>
@@ -30530,7 +30530,7 @@
       <c r="AL247" s="17"/>
       <c r="AM247" s="17"/>
     </row>
-    <row r="248" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
       <c r="E248" s="17"/>
@@ -30560,7 +30560,7 @@
       <c r="AL248" s="17"/>
       <c r="AM248" s="17"/>
     </row>
-    <row r="249" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
       <c r="E249" s="17"/>
@@ -30590,7 +30590,7 @@
       <c r="AL249" s="17"/>
       <c r="AM249" s="17"/>
     </row>
-    <row r="250" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
       <c r="E250" s="17"/>
@@ -30620,7 +30620,7 @@
       <c r="AL250" s="17"/>
       <c r="AM250" s="17"/>
     </row>
-    <row r="251" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C251" s="17"/>
       <c r="D251" s="17"/>
       <c r="E251" s="17"/>
@@ -30650,7 +30650,7 @@
       <c r="AL251" s="17"/>
       <c r="AM251" s="17"/>
     </row>
-    <row r="252" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C252" s="17"/>
       <c r="D252" s="17"/>
       <c r="E252" s="17"/>
@@ -30680,7 +30680,7 @@
       <c r="AL252" s="17"/>
       <c r="AM252" s="17"/>
     </row>
-    <row r="253" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C253" s="17"/>
       <c r="D253" s="17"/>
       <c r="E253" s="17"/>
@@ -30710,7 +30710,7 @@
       <c r="AL253" s="17"/>
       <c r="AM253" s="17"/>
     </row>
-    <row r="254" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C254" s="17"/>
       <c r="D254" s="17"/>
       <c r="E254" s="17"/>
@@ -30740,7 +30740,7 @@
       <c r="AL254" s="17"/>
       <c r="AM254" s="17"/>
     </row>
-    <row r="255" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
       <c r="E255" s="17"/>
@@ -30770,7 +30770,7 @@
       <c r="AL255" s="17"/>
       <c r="AM255" s="17"/>
     </row>
-    <row r="256" spans="3:39" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:39" x14ac:dyDescent="0.35">
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
       <c r="E256" s="17"/>
@@ -30778,7 +30778,7 @@
       <c r="G256" s="17"/>
       <c r="Q256" s="17"/>
     </row>
-    <row r="257" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C257" s="17"/>
       <c r="D257" s="17"/>
       <c r="E257" s="17"/>
@@ -30786,25 +30786,25 @@
       <c r="G257" s="17"/>
       <c r="Q257" s="17"/>
     </row>
-    <row r="258" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q258" s="17"/>
     </row>
-    <row r="259" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q259" s="17"/>
     </row>
-    <row r="260" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q260" s="17"/>
     </row>
-    <row r="261" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q261" s="17"/>
     </row>
-    <row r="262" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q262" s="17"/>
     </row>
-    <row r="263" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q263" s="17"/>
     </row>
-    <row r="264" spans="3:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:17" x14ac:dyDescent="0.35">
       <c r="Q264" s="17"/>
     </row>
   </sheetData>
